--- a/problem2/result2.xlsx
+++ b/problem2/result2.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.19791</v>
+        <v>1.885297</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.367715</v>
+        <v>1.229119</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.75087</v>
+        <v>-0.793696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.033933</v>
+        <v>2.230416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9957240000000001</v>
+        <v>0.990848</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.289768</v>
+        <v>-2.099337</v>
       </c>
       <c r="C4" t="n">
-        <v>1.618194</v>
+        <v>1.221554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.995127</v>
+        <v>0.989747</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.017103</v>
+        <v>-2.458154</v>
       </c>
       <c r="C5" t="n">
-        <v>2.668348</v>
+        <v>-0.388959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.994576</v>
+        <v>0.988758</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.624085</v>
+        <v>-1.729934</v>
       </c>
       <c r="C6" t="n">
-        <v>2.83865</v>
+        <v>-1.869565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.994065</v>
+        <v>0.987865</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.093273</v>
+        <v>-0.24673</v>
       </c>
       <c r="C7" t="n">
-        <v>2.087659</v>
+        <v>-2.59248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9935890000000001</v>
+        <v>0.987053</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.930725</v>
+        <v>1.373063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.665978</v>
+        <v>-2.278198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.993146</v>
+        <v>0.986313</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.890979</v>
+        <v>2.495369</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9835429999999999</v>
+        <v>-1.068682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.992731</v>
+        <v>0.985635</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.998526</v>
+        <v>2.709296</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.371357</v>
+        <v>0.567391</v>
       </c>
       <c r="D10" t="n">
-        <v>0.992343</v>
+        <v>0.985012</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.520424</v>
+        <v>1.953756</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.104645</v>
+        <v>2.034244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9919790000000001</v>
+        <v>0.984436</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.125529</v>
+        <v>0.506641</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.989142</v>
+        <v>2.826936</v>
       </c>
       <c r="D12" t="n">
-        <v>0.991636</v>
+        <v>0.983904</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.494003</v>
+        <v>-1.137825</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.067307</v>
+        <v>2.691913</v>
       </c>
       <c r="D13" t="n">
-        <v>0.991313</v>
+        <v>0.98341</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.230581</v>
+        <v>-2.446758</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5908409999999999</v>
+        <v>1.687326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.991008</v>
+        <v>0.98295</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.155846</v>
+        <v>-3.017751</v>
       </c>
       <c r="C15" t="n">
-        <v>1.057466</v>
+        <v>0.139274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.99072</v>
+        <v>0.982521</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.298368</v>
+        <v>-2.689747</v>
       </c>
       <c r="C16" t="n">
-        <v>2.467158</v>
+        <v>-1.477796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.990447</v>
+        <v>0.982119</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.874536</v>
+        <v>-1.571435</v>
       </c>
       <c r="C17" t="n">
-        <v>3.300946</v>
+        <v>-2.691005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.990189</v>
+        <v>0.981743</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.774039</v>
+        <v>0.009689</v>
       </c>
       <c r="C18" t="n">
-        <v>3.369503</v>
+        <v>-3.162753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.989943</v>
+        <v>0.98139</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.266513</v>
+        <v>1.613146</v>
       </c>
       <c r="C19" t="n">
-        <v>2.665926</v>
+        <v>-2.773617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9897089999999999</v>
+        <v>0.981057</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.270428</v>
+        <v>2.810952</v>
       </c>
       <c r="C20" t="n">
-        <v>1.356478</v>
+        <v>-1.638822</v>
       </c>
       <c r="D20" t="n">
-        <v>0.989487</v>
+        <v>0.980743</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.571626</v>
+        <v>3.29776</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.265799</v>
+        <v>-0.062269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989275</v>
+        <v>0.980447</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.113326</v>
+        <v>2.95972</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.850873</v>
+        <v>1.552732</v>
       </c>
       <c r="D22" t="n">
-        <v>0.989072</v>
+        <v>0.980167</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.999289</v>
+        <v>1.890012</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.06801</v>
+        <v>2.809007</v>
       </c>
       <c r="D23" t="n">
-        <v>0.988879</v>
+        <v>0.9799020000000001</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.463932</v>
+        <v>0.353434</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.672311</v>
+        <v>3.410194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.988694</v>
+        <v>0.97965</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.181465</v>
+        <v>-1.285992</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.549148</v>
+        <v>3.223688</v>
       </c>
       <c r="D25" t="n">
-        <v>0.988517</v>
+        <v>0.979411</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.613687</v>
+        <v>-2.653869</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.729855</v>
+        <v>2.300968</v>
       </c>
       <c r="D26" t="n">
-        <v>0.988348</v>
+        <v>0.979183</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.560173</v>
+        <v>-3.449254</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.378314</v>
+        <v>0.855332</v>
       </c>
       <c r="D27" t="n">
-        <v>0.988185</v>
+        <v>0.978966</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.847715</v>
+        <v>-3.505766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246439</v>
+        <v>-0.7937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.988029</v>
+        <v>0.97876</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.429522</v>
+        <v>-2.819334</v>
       </c>
       <c r="C29" t="n">
-        <v>1.842563</v>
+        <v>-2.294137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.987879</v>
+        <v>0.978563</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.387628</v>
+        <v>-1.540129</v>
       </c>
       <c r="C30" t="n">
-        <v>3.121999</v>
+        <v>-3.336315</v>
       </c>
       <c r="D30" t="n">
-        <v>0.987735</v>
+        <v>0.978374</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.912305</v>
+        <v>0.066188</v>
       </c>
       <c r="C31" t="n">
-        <v>3.860866</v>
+        <v>-3.71347</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9875969999999999</v>
+        <v>0.978194</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.736008</v>
+        <v>1.677308</v>
       </c>
       <c r="C32" t="n">
-        <v>3.935451</v>
+        <v>-3.357391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.987463</v>
+        <v>0.978021</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2.274357</v>
+        <v>2.97987</v>
       </c>
       <c r="C33" t="n">
-        <v>3.338809</v>
+        <v>-2.344558</v>
       </c>
       <c r="D33" t="n">
-        <v>0.987334</v>
+        <v>0.9778559999999999</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.44572</v>
+        <v>3.728715</v>
       </c>
       <c r="C34" t="n">
-        <v>2.176738</v>
+        <v>-0.874275</v>
       </c>
       <c r="D34" t="n">
-        <v>0.98721</v>
+        <v>0.977697</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.06022</v>
+        <v>3.789287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.645435</v>
+        <v>0.774613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9870910000000001</v>
+        <v>0.977544</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-4.022986</v>
+        <v>3.156909</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.004145</v>
+        <v>2.29862</v>
       </c>
       <c r="D36" t="n">
-        <v>0.986975</v>
+        <v>0.977398</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.345254</v>
+        <v>1.951449</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.508532</v>
+        <v>3.425281</v>
       </c>
       <c r="D37" t="n">
-        <v>0.986864</v>
+        <v>0.977257</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.138203</v>
+        <v>0.390392</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.633489</v>
+        <v>3.959699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.986756</v>
+        <v>0.977122</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.591777</v>
+        <v>-1.253224</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.208873</v>
+        <v>3.814701</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9866509999999999</v>
+        <v>0.9769910000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.057236</v>
+        <v>-2.699669</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.151831</v>
+        <v>3.020787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.98655</v>
+        <v>0.976865</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.562342</v>
+        <v>-3.70945</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.475696</v>
+        <v>1.715857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.986453</v>
+        <v>0.9767439999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.703865</v>
+        <v>-4.120807</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.2843</v>
+        <v>0.117957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.986358</v>
+        <v>0.976627</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.319654</v>
+        <v>-3.872442</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.753515</v>
+        <v>-1.513243</v>
       </c>
       <c r="D43" t="n">
-        <v>0.986266</v>
+        <v>0.976514</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.325975</v>
+        <v>-3.00901</v>
       </c>
       <c r="C44" t="n">
-        <v>0.896473</v>
+        <v>-2.919296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.986177</v>
+        <v>0.976405</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.726332</v>
+        <v>-1.669802</v>
       </c>
       <c r="C45" t="n">
-        <v>2.433655</v>
+        <v>-3.883153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9860910000000001</v>
+        <v>0.976299</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.607795</v>
+        <v>-0.063581</v>
       </c>
       <c r="C46" t="n">
-        <v>3.646657</v>
+        <v>-4.260719</v>
       </c>
       <c r="D46" t="n">
-        <v>0.986007</v>
+        <v>0.976197</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.126145</v>
+        <v>1.565634</v>
       </c>
       <c r="C47" t="n">
-        <v>4.372752</v>
+        <v>-3.999649</v>
       </c>
       <c r="D47" t="n">
-        <v>0.985926</v>
+        <v>0.976098</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.517454</v>
+        <v>2.976136</v>
       </c>
       <c r="C48" t="n">
-        <v>4.517946</v>
+        <v>-3.143504</v>
       </c>
       <c r="D48" t="n">
-        <v>0.985847</v>
+        <v>0.976002</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-2.104637</v>
+        <v>3.963713</v>
       </c>
       <c r="C49" t="n">
-        <v>4.067002</v>
+        <v>-1.82169</v>
       </c>
       <c r="D49" t="n">
-        <v>0.98577</v>
+        <v>0.9759100000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-3.428895</v>
+        <v>4.389569</v>
       </c>
       <c r="C50" t="n">
-        <v>3.082705</v>
+        <v>-0.227592</v>
       </c>
       <c r="D50" t="n">
-        <v>0.985695</v>
+        <v>0.97582</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-4.321723</v>
+        <v>4.19752</v>
       </c>
       <c r="C51" t="n">
-        <v>1.695132</v>
+        <v>1.411193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.985623</v>
+        <v>0.975732</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-4.672712</v>
+        <v>3.418771</v>
       </c>
       <c r="C52" t="n">
-        <v>0.082896</v>
+        <v>2.865858</v>
       </c>
       <c r="D52" t="n">
-        <v>0.985552</v>
+        <v>0.975648</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-4.441442</v>
+        <v>2.164454</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.550816</v>
+        <v>3.93786</v>
       </c>
       <c r="D53" t="n">
-        <v>0.985483</v>
+        <v>0.975566</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-3.660181</v>
+        <v>0.6077129999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.004134</v>
+        <v>4.484723</v>
       </c>
       <c r="D54" t="n">
-        <v>0.985416</v>
+        <v>0.975486</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-2.427608</v>
+        <v>-1.041598</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.101067</v>
+        <v>4.437066</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985351</v>
+        <v>0.975409</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.894821</v>
+        <v>-2.565814</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.711857</v>
+        <v>3.805191</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9852880000000001</v>
+        <v>0.975333</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.754259</v>
+        <v>-3.767971</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.766933</v>
+        <v>2.675006</v>
       </c>
       <c r="D57" t="n">
-        <v>0.985226</v>
+        <v>0.97526</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.325487</v>
+        <v>-4.496319</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.263204</v>
+        <v>1.194462</v>
       </c>
       <c r="D58" t="n">
-        <v>0.985165</v>
+        <v>0.975189</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.637296</v>
+        <v>-4.661971</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.262375</v>
+        <v>-0.447202</v>
       </c>
       <c r="D59" t="n">
-        <v>0.985106</v>
+        <v>0.97512</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.541098</v>
+        <v>-4.247906</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.881926</v>
+        <v>-2.044402</v>
       </c>
       <c r="D60" t="n">
-        <v>0.985049</v>
+        <v>0.975052</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.937096</v>
+        <v>-3.308718</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.28015</v>
+        <v>-3.401025</v>
       </c>
       <c r="D61" t="n">
-        <v>0.984993</v>
+        <v>0.974986</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.783988</v>
+        <v>-1.96169</v>
       </c>
       <c r="C62" t="n">
-        <v>1.362731</v>
+        <v>-4.353923</v>
       </c>
       <c r="D62" t="n">
-        <v>0.984938</v>
+        <v>0.974922</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.101814</v>
+        <v>-0.370747</v>
       </c>
       <c r="C63" t="n">
-        <v>2.865109</v>
+        <v>-4.791418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.984885</v>
+        <v>0.9748599999999999</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.968001</v>
+        <v>1.274395</v>
       </c>
       <c r="C64" t="n">
-        <v>4.063845</v>
+        <v>-4.664901</v>
       </c>
       <c r="D64" t="n">
-        <v>0.984833</v>
+        <v>0.974799</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.507367</v>
+        <v>2.781199</v>
       </c>
       <c r="C65" t="n">
-        <v>4.831339</v>
+        <v>-3.992561</v>
       </c>
       <c r="D65" t="n">
-        <v>0.984782</v>
+        <v>0.9747400000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.122528</v>
+        <v>3.976609</v>
       </c>
       <c r="C66" t="n">
-        <v>5.088132</v>
+        <v>-2.855242</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9847320000000001</v>
+        <v>0.974682</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-1.748907</v>
+        <v>4.72619</v>
       </c>
       <c r="C67" t="n">
-        <v>4.80994</v>
+        <v>-1.385335</v>
       </c>
       <c r="D67" t="n">
-        <v>0.984683</v>
+        <v>0.974626</v>
       </c>
     </row>
     <row r="68">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-3.202214</v>
+        <v>4.948118</v>
       </c>
       <c r="C68" t="n">
-        <v>4.028661</v>
+        <v>0.249672</v>
       </c>
       <c r="D68" t="n">
-        <v>0.984635</v>
+        <v>0.974571</v>
       </c>
     </row>
     <row r="69">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4.333511</v>
+        <v>4.620734</v>
       </c>
       <c r="C69" t="n">
-        <v>2.82755</v>
+        <v>1.866867</v>
       </c>
       <c r="D69" t="n">
-        <v>0.984589</v>
+        <v>0.974517</v>
       </c>
     </row>
     <row r="70">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-5.02911</v>
+        <v>3.783173</v>
       </c>
       <c r="C70" t="n">
-        <v>1.33134</v>
+        <v>3.288484</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9845429999999999</v>
+        <v>0.974465</v>
       </c>
     </row>
     <row r="71">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-5.221104</v>
+        <v>2.529362</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.307451</v>
+        <v>4.361077</v>
       </c>
       <c r="D71" t="n">
-        <v>0.984499</v>
+        <v>0.974413</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-4.892937</v>
+        <v>0.996358</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.924488</v>
+        <v>4.971323</v>
       </c>
       <c r="D72" t="n">
-        <v>0.984455</v>
+        <v>0.974363</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-4.079692</v>
+        <v>-0.65142</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.360152</v>
+        <v>5.05693</v>
       </c>
       <c r="D73" t="n">
-        <v>0.984412</v>
+        <v>0.974314</v>
       </c>
     </row>
     <row r="74">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-2.863325</v>
+        <v>-2.240232</v>
       </c>
       <c r="C74" t="n">
-        <v>-4.475029</v>
+        <v>4.611761</v>
       </c>
       <c r="D74" t="n">
-        <v>0.98437</v>
+        <v>0.974266</v>
       </c>
     </row>
     <row r="75">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.363535</v>
+        <v>-3.605325</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.162875</v>
+        <v>3.684927</v>
       </c>
       <c r="D75" t="n">
-        <v>0.984329</v>
+        <v>0.97422</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.274653</v>
+        <v>-4.607616</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.359949</v>
+        <v>2.374236</v>
       </c>
       <c r="D76" t="n">
-        <v>0.984289</v>
+        <v>0.974174</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.895278</v>
+        <v>-5.14714</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.049989</v>
+        <v>0.814937</v>
       </c>
       <c r="D77" t="n">
-        <v>0.98425</v>
+        <v>0.974129</v>
       </c>
     </row>
     <row r="78">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.346343</v>
+        <v>-5.17206</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.264553</v>
+        <v>-0.834875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9842109999999999</v>
+        <v>0.974085</v>
       </c>
     </row>
     <row r="79">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.493846</v>
+        <v>-4.682552</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.078915</v>
+        <v>-2.410591</v>
       </c>
       <c r="D79" t="n">
-        <v>0.984174</v>
+        <v>0.974042</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5.233667</v>
+        <v>-3.729437</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.604071</v>
+        <v>-3.757467</v>
       </c>
       <c r="D80" t="n">
-        <v>0.984137</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.500332</v>
+        <v>-2.407919</v>
       </c>
       <c r="C81" t="n">
-        <v>0.024238</v>
+        <v>-4.745439</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9841</v>
+        <v>0.973959</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5.272001</v>
+        <v>-0.847268</v>
       </c>
       <c r="C82" t="n">
-        <v>1.658363</v>
+        <v>-5.281041</v>
       </c>
       <c r="D82" t="n">
-        <v>0.984065</v>
+        <v>0.973919</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.571382</v>
+        <v>0.802374</v>
       </c>
       <c r="C83" t="n">
-        <v>3.152228</v>
+        <v>-5.315395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.98403</v>
+        <v>0.9738790000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3.462677</v>
+        <v>2.384707</v>
       </c>
       <c r="C84" t="n">
-        <v>4.374224</v>
+        <v>-4.847718</v>
       </c>
       <c r="D84" t="n">
-        <v>0.983995</v>
+        <v>0.973841</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.04499</v>
+        <v>3.752044</v>
       </c>
       <c r="C85" t="n">
-        <v>5.218417</v>
+        <v>-3.924198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.983962</v>
+        <v>0.973803</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.442904</v>
+        <v>4.778778</v>
       </c>
       <c r="C86" t="n">
-        <v>5.613161</v>
+        <v>-2.632564</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9839290000000001</v>
+        <v>0.973766</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1.204817</v>
+        <v>5.372366</v>
       </c>
       <c r="C87" t="n">
-        <v>5.526484</v>
+        <v>-1.093034</v>
       </c>
       <c r="D87" t="n">
-        <v>0.983896</v>
+        <v>0.973729</v>
       </c>
     </row>
     <row r="88">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-2.757398</v>
+        <v>5.480942</v>
       </c>
       <c r="C88" t="n">
-        <v>4.96792</v>
+        <v>0.55339</v>
       </c>
       <c r="D88" t="n">
-        <v>0.983864</v>
+        <v>0.9736939999999999</v>
       </c>
     </row>
     <row r="89">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-4.08399</v>
+        <v>5.097008</v>
       </c>
       <c r="C89" t="n">
-        <v>3.986771</v>
+        <v>2.1581</v>
       </c>
       <c r="D89" t="n">
-        <v>0.983833</v>
+        <v>0.9736590000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-5.074423</v>
+        <v>4.257056</v>
       </c>
       <c r="C90" t="n">
-        <v>2.667096</v>
+        <v>3.578305</v>
       </c>
       <c r="D90" t="n">
-        <v>0.983802</v>
+        <v>0.973624</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-5.647893</v>
+        <v>3.037321</v>
       </c>
       <c r="C91" t="n">
-        <v>1.119959</v>
+        <v>4.689496</v>
       </c>
       <c r="D91" t="n">
-        <v>0.983772</v>
+        <v>0.973591</v>
       </c>
     </row>
     <row r="92">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-5.758979</v>
+        <v>1.546188</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.526297</v>
+        <v>5.395913</v>
       </c>
       <c r="D92" t="n">
-        <v>0.983743</v>
+        <v>0.973557</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-5.400582</v>
+        <v>-0.08592900000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.136903</v>
+        <v>5.638179</v>
       </c>
       <c r="D93" t="n">
-        <v>0.983714</v>
+        <v>0.973525</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-4.603679</v>
+        <v>-1.718292</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.581703</v>
+        <v>5.397573</v>
       </c>
       <c r="D94" t="n">
-        <v>0.983685</v>
+        <v>0.9734930000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-3.434026</v>
+        <v>-3.212038</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.745495</v>
+        <v>4.6967</v>
       </c>
       <c r="D95" t="n">
-        <v>0.983657</v>
+        <v>0.973462</v>
       </c>
     </row>
     <row r="96">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1.986198</v>
+        <v>-4.441847</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.536882</v>
+        <v>3.596668</v>
       </c>
       <c r="D96" t="n">
-        <v>0.983629</v>
+        <v>0.973431</v>
       </c>
     </row>
     <row r="97">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.375526</v>
+        <v>-5.306112</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.894982</v>
+        <v>2.191127</v>
       </c>
       <c r="D97" t="n">
-        <v>0.983602</v>
+        <v>0.973401</v>
       </c>
     </row>
     <row r="98">
@@ -1998,13 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1.271353</v>
+        <v>-5.734835</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.793555</v>
+        <v>0.5977980000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.983575</v>
+        <v>0.973371</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.826553</v>
+        <v>-5.694684</v>
       </c>
       <c r="C99" t="n">
-        <v>-5.242326</v>
+        <v>-1.051713</v>
       </c>
       <c r="D99" t="n">
-        <v>0.983549</v>
+        <v>0.973342</v>
       </c>
     </row>
     <row r="100">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.1708</v>
+        <v>-5.190914</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.285508</v>
+        <v>-2.622928</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983523</v>
+        <v>0.973313</v>
       </c>
     </row>
     <row r="101">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5.20236</v>
+        <v>-4.266121</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.997725</v>
+        <v>-3.989405</v>
       </c>
       <c r="D101" t="n">
-        <v>0.983498</v>
+        <v>0.973285</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5.844389</v>
+        <v>-2.996042</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.477759</v>
+        <v>-5.042685</v>
       </c>
       <c r="D102" t="n">
-        <v>0.983473</v>
+        <v>0.973257</v>
       </c>
     </row>
     <row r="103">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.050207</v>
+        <v>-1.482848</v>
       </c>
       <c r="C103" t="n">
-        <v>0.159354</v>
+        <v>-5.700517</v>
       </c>
       <c r="D103" t="n">
-        <v>0.983448</v>
+        <v>0.97323</v>
       </c>
     </row>
     <row r="104">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.806178</v>
+        <v>0.153442</v>
       </c>
       <c r="C104" t="n">
-        <v>1.791209</v>
+        <v>-5.91278</v>
       </c>
       <c r="D104" t="n">
-        <v>0.983424</v>
+        <v>0.973204</v>
       </c>
     </row>
     <row r="105">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5.132073</v>
+        <v>1.78469</v>
       </c>
       <c r="C105" t="n">
-        <v>3.297224</v>
+        <v>-5.664731</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9834000000000001</v>
+        <v>0.973177</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.078969</v>
+        <v>3.284722</v>
       </c>
       <c r="C106" t="n">
-        <v>4.56745</v>
+        <v>-4.977415</v>
       </c>
       <c r="D106" t="n">
-        <v>0.983376</v>
+        <v>0.973151</v>
       </c>
     </row>
     <row r="107">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2.724929</v>
+        <v>4.538968</v>
       </c>
       <c r="C107" t="n">
-        <v>5.510359</v>
+        <v>-3.905329</v>
       </c>
       <c r="D107" t="n">
-        <v>0.983353</v>
+        <v>0.973126</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.168853</v>
+        <v>5.452945</v>
       </c>
       <c r="C108" t="n">
-        <v>6.059108</v>
+        <v>-2.531595</v>
       </c>
       <c r="D108" t="n">
-        <v>0.983331</v>
+        <v>0.973101</v>
       </c>
     </row>
     <row r="109">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.477012</v>
+        <v>5.958992</v>
       </c>
       <c r="C109" t="n">
-        <v>6.175853</v>
+        <v>-0.961112</v>
       </c>
       <c r="D109" t="n">
-        <v>0.983308</v>
+        <v>0.9730760000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-2.095297</v>
+        <v>6.020805</v>
       </c>
       <c r="C110" t="n">
-        <v>5.853899</v>
+        <v>0.68773</v>
       </c>
       <c r="D110" t="n">
-        <v>0.983286</v>
+        <v>0.973052</v>
       </c>
     </row>
     <row r="111">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-3.571894</v>
+        <v>5.635513</v>
       </c>
       <c r="C111" t="n">
-        <v>5.117584</v>
+        <v>2.292115</v>
       </c>
       <c r="D111" t="n">
-        <v>0.983264</v>
+        <v>0.973028</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-4.80389</v>
+        <v>4.833241</v>
       </c>
       <c r="C112" t="n">
-        <v>4.020002</v>
+        <v>3.73394</v>
       </c>
       <c r="D112" t="n">
-        <v>0.983243</v>
+        <v>0.973005</v>
       </c>
     </row>
     <row r="113">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-5.706513</v>
+        <v>3.674263</v>
       </c>
       <c r="C113" t="n">
-        <v>2.63878</v>
+        <v>4.908363</v>
       </c>
       <c r="D113" t="n">
-        <v>0.983222</v>
+        <v>0.972981</v>
       </c>
     </row>
     <row r="114">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-6.218652</v>
+        <v>2.244051</v>
       </c>
       <c r="C114" t="n">
-        <v>1.070274</v>
+        <v>5.731159</v>
       </c>
       <c r="D114" t="n">
-        <v>0.983201</v>
+        <v>0.972959</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-6.306617</v>
+        <v>0.646634</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.57738</v>
+        <v>6.144389</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9831800000000001</v>
+        <v>0.972936</v>
       </c>
     </row>
     <row r="116">
@@ -2286,13 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-5.965932</v>
+        <v>-1.003186</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.191825</v>
+        <v>6.120047</v>
       </c>
       <c r="D116" t="n">
-        <v>0.98316</v>
+        <v>0.9729139999999999</v>
       </c>
     </row>
     <row r="117">
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-5.221118</v>
+        <v>-2.588184</v>
       </c>
       <c r="C117" t="n">
-        <v>-3.664154</v>
+        <v>5.66148</v>
       </c>
       <c r="D117" t="n">
-        <v>0.98314</v>
+        <v>0.972892</v>
       </c>
     </row>
     <row r="118">
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-4.123531</v>
+        <v>-3.997005</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.896145</v>
+        <v>4.802571</v>
       </c>
       <c r="D118" t="n">
-        <v>0.983121</v>
+        <v>0.972871</v>
       </c>
     </row>
     <row r="119">
@@ -2334,13 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-2.74747</v>
+        <v>-5.131842</v>
       </c>
       <c r="C119" t="n">
-        <v>-5.806616</v>
+        <v>3.604805</v>
       </c>
       <c r="D119" t="n">
-        <v>0.983101</v>
+        <v>0.97285</v>
       </c>
     </row>
     <row r="120">
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1.184866</v>
+        <v>-5.91497</v>
       </c>
       <c r="C120" t="n">
-        <v>-6.336491</v>
+        <v>2.152493</v>
       </c>
       <c r="D120" t="n">
-        <v>0.983082</v>
+        <v>0.9728290000000001</v>
       </c>
     </row>
     <row r="121">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.461066</v>
+        <v>-6.29373</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.452292</v>
+        <v>0.546554</v>
       </c>
       <c r="D121" t="n">
-        <v>0.983064</v>
+        <v>0.972809</v>
       </c>
     </row>
     <row r="122">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.082742</v>
+        <v>-6.243677</v>
       </c>
       <c r="C122" t="n">
-        <v>-6.147883</v>
+        <v>-1.102687</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9830449999999999</v>
+        <v>0.972789</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3.575258</v>
+        <v>-5.769729</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.444394</v>
+        <v>-2.683153</v>
       </c>
       <c r="D123" t="n">
-        <v>0.983027</v>
+        <v>0.972769</v>
       </c>
     </row>
     <row r="124">
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.843083</v>
+        <v>-4.905312</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.388402</v>
+        <v>-4.0886</v>
       </c>
       <c r="D124" t="n">
-        <v>0.983009</v>
+        <v>0.972749</v>
       </c>
     </row>
     <row r="125">
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5.806002</v>
+        <v>-3.709618</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.048519</v>
+        <v>-5.225621</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9829909999999999</v>
+        <v>0.97273</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.403951</v>
+        <v>-2.263221</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.510677</v>
+        <v>-6.019622</v>
       </c>
       <c r="D126" t="n">
-        <v>0.982973</v>
+        <v>0.972711</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6.600459</v>
+        <v>-0.662389</v>
       </c>
       <c r="C127" t="n">
-        <v>0.12758</v>
+        <v>-6.419416</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9829560000000001</v>
+        <v>0.972692</v>
       </c>
     </row>
     <row r="128">
@@ -2478,13 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.384542</v>
+        <v>0.987499</v>
       </c>
       <c r="C128" t="n">
-        <v>1.763391</v>
+        <v>-6.400167</v>
       </c>
       <c r="D128" t="n">
-        <v>0.982939</v>
+        <v>0.972673</v>
       </c>
     </row>
     <row r="129">
@@ -2494,13 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.770967</v>
+        <v>2.578958</v>
       </c>
       <c r="C129" t="n">
-        <v>3.295066</v>
+        <v>-5.964553</v>
       </c>
       <c r="D129" t="n">
-        <v>0.982922</v>
+        <v>0.972655</v>
       </c>
     </row>
     <row r="130">
@@ -2510,13 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.798916</v>
+        <v>4.009379</v>
       </c>
       <c r="C130" t="n">
-        <v>4.628338</v>
+        <v>-5.142121</v>
       </c>
       <c r="D130" t="n">
-        <v>0.982905</v>
+        <v>0.972637</v>
       </c>
     </row>
     <row r="131">
@@ -2526,13 +2526,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.529184</v>
+        <v>5.187533</v>
       </c>
       <c r="C131" t="n">
-        <v>5.682037</v>
+        <v>-3.986935</v>
       </c>
       <c r="D131" t="n">
-        <v>0.982889</v>
+        <v>0.972619</v>
       </c>
     </row>
     <row r="132">
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.040128</v>
+        <v>6.039184</v>
       </c>
       <c r="C132" t="n">
-        <v>6.39282</v>
+        <v>-2.573715</v>
       </c>
       <c r="D132" t="n">
-        <v>0.982873</v>
+        <v>0.972602</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.422634</v>
+        <v>6.511511</v>
       </c>
       <c r="C133" t="n">
-        <v>6.718721</v>
+        <v>-0.992764</v>
       </c>
       <c r="D133" t="n">
-        <v>0.982857</v>
+        <v>0.972584</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-1.225551</v>
+        <v>6.576067</v>
       </c>
       <c r="C134" t="n">
-        <v>6.641342</v>
+        <v>0.655973</v>
       </c>
       <c r="D134" t="n">
-        <v>0.982841</v>
+        <v>0.972567</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-2.80577</v>
+        <v>6.230153</v>
       </c>
       <c r="C135" t="n">
-        <v>6.166573</v>
+        <v>2.269306</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9828249999999999</v>
+        <v>0.9725510000000001</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-4.224339</v>
+        <v>5.496562</v>
       </c>
       <c r="C136" t="n">
-        <v>5.32386</v>
+        <v>3.747259</v>
       </c>
       <c r="D136" t="n">
-        <v>0.98281</v>
+        <v>0.972534</v>
       </c>
     </row>
     <row r="137">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-5.397993</v>
+        <v>4.421759</v>
       </c>
       <c r="C137" t="n">
-        <v>4.164103</v>
+        <v>4.999177</v>
       </c>
       <c r="D137" t="n">
-        <v>0.982795</v>
+        <v>0.972518</v>
       </c>
     </row>
     <row r="138">
@@ -2638,13 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-6.258616</v>
+        <v>3.072651</v>
       </c>
       <c r="C138" t="n">
-        <v>2.75633</v>
+        <v>5.949128</v>
       </c>
       <c r="D138" t="n">
-        <v>0.98278</v>
+        <v>0.9725009999999999</v>
       </c>
     </row>
     <row r="139">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-6.756979</v>
+        <v>1.532184</v>
       </c>
       <c r="C139" t="n">
-        <v>1.183391</v>
+        <v>6.540282</v>
       </c>
       <c r="D139" t="n">
-        <v>0.982765</v>
+        <v>0.972485</v>
       </c>
     </row>
     <row r="140">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-6.865297</v>
+        <v>-0.105921</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.46305</v>
+        <v>6.738043</v>
       </c>
       <c r="D140" t="n">
-        <v>0.98275</v>
+        <v>0.9724699999999999</v>
       </c>
     </row>
     <row r="141">
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-6.578509</v>
+        <v>-1.742977</v>
       </c>
       <c r="C141" t="n">
-        <v>-2.087935</v>
+        <v>6.531772</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9827360000000001</v>
+        <v>0.972454</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-5.914219</v>
+        <v>-3.281292</v>
       </c>
       <c r="C142" t="n">
-        <v>-3.598305</v>
+        <v>5.93504</v>
       </c>
       <c r="D142" t="n">
-        <v>0.982721</v>
+        <v>0.9724390000000001</v>
       </c>
     </row>
     <row r="143">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-4.911353</v>
+        <v>-4.629948</v>
       </c>
       <c r="C143" t="n">
-        <v>-4.908557</v>
+        <v>4.984447</v>
       </c>
       <c r="D143" t="n">
-        <v>0.982707</v>
+        <v>0.972424</v>
       </c>
     </row>
     <row r="144">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-3.627637</v>
+        <v>-5.710056</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.945174</v>
+        <v>3.737104</v>
       </c>
       <c r="D144" t="n">
-        <v>0.982693</v>
+        <v>0.972409</v>
       </c>
     </row>
     <row r="145">
@@ -2750,13 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-2.136074</v>
+        <v>-6.459187</v>
       </c>
       <c r="C145" t="n">
-        <v>-6.650681</v>
+        <v>2.266967</v>
       </c>
       <c r="D145" t="n">
-        <v>0.98268</v>
+        <v>0.972394</v>
       </c>
     </row>
     <row r="146">
@@ -2766,13 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-0.520634</v>
+        <v>-6.83475</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.986617</v>
+        <v>0.660277</v>
       </c>
       <c r="D146" t="n">
-        <v>0.982666</v>
+        <v>0.972379</v>
       </c>
     </row>
     <row r="147">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.128571</v>
+        <v>-6.816156</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.935396</v>
+        <v>-0.989618</v>
       </c>
       <c r="D147" t="n">
-        <v>0.982653</v>
+        <v>0.972365</v>
       </c>
     </row>
     <row r="148">
@@ -2798,13 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.720353</v>
+        <v>-6.405658</v>
       </c>
       <c r="C148" t="n">
-        <v>-6.500968</v>
+        <v>-2.58774</v>
       </c>
       <c r="D148" t="n">
-        <v>0.982639</v>
+        <v>0.97235</v>
       </c>
     </row>
     <row r="149">
@@ -2814,13 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4.167475</v>
+        <v>-5.627888</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.708289</v>
+        <v>-4.042928</v>
       </c>
       <c r="D149" t="n">
-        <v>0.982626</v>
+        <v>0.972336</v>
       </c>
     </row>
     <row r="150">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>5.391349</v>
+        <v>-4.528109</v>
       </c>
       <c r="C150" t="n">
-        <v>-4.601659</v>
+        <v>-5.272963</v>
       </c>
       <c r="D150" t="n">
-        <v>0.982613</v>
+        <v>0.972322</v>
       </c>
     </row>
     <row r="151">
@@ -2846,13 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>6.326186</v>
+        <v>-3.169361</v>
       </c>
       <c r="C151" t="n">
-        <v>-3.242034</v>
+        <v>-6.209073</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9826</v>
+        <v>0.972309</v>
       </c>
     </row>
     <row r="152">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6.922354</v>
+        <v>-1.628651</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.703501</v>
+        <v>-6.799592</v>
       </c>
       <c r="D152" t="n">
-        <v>0.982588</v>
+        <v>0.972295</v>
       </c>
     </row>
     <row r="153">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7.14882</v>
+        <v>0.007544</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.069116</v>
+        <v>-7.01259</v>
       </c>
       <c r="D153" t="n">
-        <v>0.982575</v>
+        <v>0.972282</v>
       </c>
     </row>
     <row r="154">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6.994533</v>
+        <v>1.648212</v>
       </c>
       <c r="C154" t="n">
-        <v>1.573654</v>
+        <v>-6.837352</v>
       </c>
       <c r="D154" t="n">
-        <v>0.982563</v>
+        <v>0.972268</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6.468741</v>
+        <v>3.202893</v>
       </c>
       <c r="C155" t="n">
-        <v>3.137637</v>
+        <v>-6.284662</v>
       </c>
       <c r="D155" t="n">
-        <v>0.98255</v>
+        <v>0.972255</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5.600206</v>
+        <v>4.586626</v>
       </c>
       <c r="C156" t="n">
-        <v>4.540544</v>
+        <v>-5.385895</v>
       </c>
       <c r="D156" t="n">
-        <v>0.982538</v>
+        <v>0.9722420000000001</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.435436</v>
+        <v>5.724501</v>
       </c>
       <c r="C157" t="n">
-        <v>5.709223</v>
+        <v>-4.191014</v>
       </c>
       <c r="D157" t="n">
-        <v>0.982526</v>
+        <v>0.97223</v>
       </c>
     </row>
     <row r="158">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3.036006</v>
+        <v>6.55557</v>
       </c>
       <c r="C158" t="n">
-        <v>6.583348</v>
+        <v>-2.765593</v>
       </c>
       <c r="D158" t="n">
-        <v>0.982514</v>
+        <v>0.972217</v>
       </c>
     </row>
     <row r="159">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.475156</v>
+        <v>7.035934</v>
       </c>
       <c r="C159" t="n">
-        <v>7.11837</v>
+        <v>-1.187065</v>
       </c>
       <c r="D159" t="n">
-        <v>0.982503</v>
+        <v>0.972204</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-0.166142</v>
+        <v>7.140851</v>
       </c>
       <c r="C160" t="n">
-        <v>7.287602</v>
+        <v>0.459596</v>
       </c>
       <c r="D160" t="n">
-        <v>0.982491</v>
+        <v>0.9721919999999999</v>
       </c>
     </row>
     <row r="161">
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1.803451</v>
+        <v>6.865782</v>
       </c>
       <c r="C161" t="n">
-        <v>7.083345</v>
+        <v>2.086506</v>
       </c>
       <c r="D161" t="n">
-        <v>0.98248</v>
+        <v>0.97218</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-3.353219</v>
+        <v>6.226349</v>
       </c>
       <c r="C162" t="n">
-        <v>6.517023</v>
+        <v>3.607567</v>
       </c>
       <c r="D162" t="n">
-        <v>0.982468</v>
+        <v>0.972168</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-4.737012</v>
+        <v>5.257229</v>
       </c>
       <c r="C163" t="n">
-        <v>5.618349</v>
+        <v>4.942972</v>
       </c>
       <c r="D163" t="n">
-        <v>0.982457</v>
+        <v>0.972156</v>
       </c>
     </row>
     <row r="164">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-5.885406</v>
+        <v>4.010079</v>
       </c>
       <c r="C164" t="n">
-        <v>4.433574</v>
+        <v>6.023303</v>
       </c>
       <c r="D164" t="n">
-        <v>0.982446</v>
+        <v>0.972144</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-6.74135</v>
+        <v>2.550602</v>
       </c>
       <c r="C165" t="n">
-        <v>3.02295</v>
+        <v>6.792997</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9824349999999999</v>
+        <v>0.972132</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-7.262856</v>
+        <v>0.954963</v>
       </c>
       <c r="C166" t="n">
-        <v>1.457533</v>
+        <v>7.213037</v>
       </c>
       <c r="D166" t="n">
-        <v>0.982424</v>
+        <v>0.972121</v>
       </c>
     </row>
     <row r="167">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-7.424883</v>
+        <v>-0.694289</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.184493</v>
+        <v>7.262732</v>
       </c>
       <c r="D167" t="n">
-        <v>0.982413</v>
+        <v>0.972109</v>
       </c>
     </row>
     <row r="168">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-7.220355</v>
+        <v>-2.312525</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.821767</v>
+        <v>6.940534</v>
       </c>
       <c r="D168" t="n">
-        <v>0.982403</v>
+        <v>0.972098</v>
       </c>
     </row>
     <row r="169">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-6.660275</v>
+        <v>-3.817384</v>
       </c>
       <c r="C169" t="n">
-        <v>-3.373802</v>
+        <v>6.263851</v>
       </c>
       <c r="D169" t="n">
-        <v>0.982392</v>
+        <v>0.972087</v>
       </c>
     </row>
     <row r="170">
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-5.772951</v>
+        <v>-5.132911</v>
       </c>
       <c r="C170" t="n">
-        <v>-4.7649</v>
+        <v>5.267915</v>
       </c>
       <c r="D170" t="n">
-        <v>0.982382</v>
+        <v>0.9720760000000001</v>
       </c>
     </row>
     <row r="171">
@@ -3166,13 +3166,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-4.602395</v>
+        <v>-6.193303</v>
       </c>
       <c r="C171" t="n">
-        <v>-5.927785</v>
+        <v>4.003767</v>
       </c>
       <c r="D171" t="n">
-        <v>0.982371</v>
+        <v>0.972065</v>
       </c>
     </row>
     <row r="172">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-3.205994</v>
+        <v>-6.946071</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.80674</v>
+        <v>2.535489</v>
       </c>
       <c r="D172" t="n">
-        <v>0.982361</v>
+        <v>0.972054</v>
       </c>
     </row>
     <row r="173">
@@ -3198,13 +3198,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-1.65157</v>
+        <v>-7.354481</v>
       </c>
       <c r="C173" t="n">
-        <v>-7.360153</v>
+        <v>0.936833</v>
       </c>
       <c r="D173" t="n">
-        <v>0.982351</v>
+        <v>0.972043</v>
       </c>
     </row>
     <row r="174">
@@ -3214,13 +3214,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.014002</v>
+        <v>-7.399172</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.562325</v>
+        <v>-0.712561</v>
       </c>
       <c r="D174" t="n">
-        <v>0.982341</v>
+        <v>0.972032</v>
       </c>
     </row>
     <row r="175">
@@ -3230,13 +3230,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1.628432</v>
+        <v>-7.078881</v>
       </c>
       <c r="C175" t="n">
-        <v>-7.404498</v>
+        <v>-2.331176</v>
       </c>
       <c r="D175" t="n">
-        <v>0.982331</v>
+        <v>0.9720220000000001</v>
       </c>
     </row>
     <row r="176">
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3.197816</v>
+        <v>-6.410269</v>
       </c>
       <c r="C176" t="n">
-        <v>-6.895054</v>
+        <v>-3.839638</v>
       </c>
       <c r="D176" t="n">
-        <v>0.982321</v>
+        <v>0.972012</v>
       </c>
     </row>
     <row r="177">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4.620265</v>
+        <v>-5.42688</v>
       </c>
       <c r="C177" t="n">
-        <v>-6.058908</v>
+        <v>-5.16457</v>
       </c>
       <c r="D177" t="n">
-        <v>0.982312</v>
+        <v>0.972001</v>
       </c>
     </row>
     <row r="178">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5.829343</v>
+        <v>-4.177287</v>
       </c>
       <c r="C178" t="n">
-        <v>-4.93613</v>
+        <v>-6.242076</v>
       </c>
       <c r="D178" t="n">
-        <v>0.982302</v>
+        <v>0.971991</v>
       </c>
     </row>
     <row r="179">
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6.76908</v>
+        <v>-2.722559</v>
       </c>
       <c r="C179" t="n">
-        <v>-3.579887</v>
+        <v>-7.020708</v>
       </c>
       <c r="D179" t="n">
-        <v>0.982293</v>
+        <v>0.971981</v>
       </c>
     </row>
     <row r="180">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7.39644</v>
+        <v>-1.133162</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.053807</v>
+        <v>-7.463782</v>
       </c>
       <c r="D180" t="n">
-        <v>0.982283</v>
+        <v>0.971971</v>
       </c>
     </row>
     <row r="181">
@@ -3326,13 +3326,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7.683156</v>
+        <v>0.514534</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.428909</v>
+        <v>-7.550945</v>
       </c>
       <c r="D181" t="n">
-        <v>0.982274</v>
+        <v>0.971961</v>
       </c>
     </row>
     <row r="182">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7.616852</v>
+        <v>2.14196</v>
       </c>
       <c r="C182" t="n">
-        <v>1.219758</v>
+        <v>-7.278939</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9822650000000001</v>
+        <v>0.971951</v>
       </c>
     </row>
     <row r="183">
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7.201417</v>
+        <v>3.672095</v>
       </c>
       <c r="C183" t="n">
-        <v>2.816603</v>
+        <v>-6.661537</v>
       </c>
       <c r="D183" t="n">
-        <v>0.982255</v>
+        <v>0.971942</v>
       </c>
     </row>
     <row r="184">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6.456626</v>
+        <v>5.033084</v>
       </c>
       <c r="C184" t="n">
-        <v>4.288943</v>
+        <v>-5.728686</v>
       </c>
       <c r="D184" t="n">
-        <v>0.982246</v>
+        <v>0.971932</v>
       </c>
     </row>
     <row r="185">
@@ -3390,13 +3390,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5.417059</v>
+        <v>6.161532</v>
       </c>
       <c r="C185" t="n">
-        <v>5.570271</v>
+        <v>-4.524899</v>
       </c>
       <c r="D185" t="n">
-        <v>0.982237</v>
+        <v>0.971923</v>
       </c>
     </row>
     <row r="186">
@@ -3406,13 +3406,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4.130358</v>
+        <v>7.005367</v>
       </c>
       <c r="C186" t="n">
-        <v>6.60318</v>
+        <v>-3.106998</v>
       </c>
       <c r="D186" t="n">
-        <v>0.982229</v>
+        <v>0.971913</v>
       </c>
     </row>
     <row r="187">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2.654931</v>
+        <v>7.526109</v>
       </c>
       <c r="C187" t="n">
-        <v>7.341837</v>
+        <v>-1.541326</v>
       </c>
       <c r="D187" t="n">
-        <v>0.98222</v>
+        <v>0.971904</v>
       </c>
     </row>
     <row r="188">
@@ -3438,13 +3438,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.057211</v>
+        <v>7.700488</v>
       </c>
       <c r="C188" t="n">
-        <v>7.753897</v>
+        <v>0.09943299999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9822109999999999</v>
+        <v>0.971895</v>
       </c>
     </row>
     <row r="189">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-0.591392</v>
+        <v>7.521325</v>
       </c>
       <c r="C189" t="n">
-        <v>7.821781</v>
+        <v>1.739677</v>
       </c>
       <c r="D189" t="n">
-        <v>0.982202</v>
+        <v>0.971886</v>
       </c>
     </row>
     <row r="190">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-2.217718</v>
+        <v>6.997665</v>
       </c>
       <c r="C190" t="n">
-        <v>7.543282</v>
+        <v>3.304375</v>
       </c>
       <c r="D190" t="n">
-        <v>0.982194</v>
+        <v>0.971877</v>
       </c>
     </row>
     <row r="191">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-3.750103</v>
+        <v>6.15417</v>
       </c>
       <c r="C191" t="n">
-        <v>6.931485</v>
+        <v>4.722478</v>
       </c>
       <c r="D191" t="n">
-        <v>0.982185</v>
+        <v>0.971868</v>
       </c>
     </row>
     <row r="192">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-5.121505</v>
+        <v>5.029814</v>
       </c>
       <c r="C192" t="n">
-        <v>6.014011</v>
+        <v>5.93009</v>
       </c>
       <c r="D192" t="n">
-        <v>0.982177</v>
+        <v>0.971859</v>
       </c>
     </row>
     <row r="193">
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-6.272378</v>
+        <v>3.675958</v>
       </c>
       <c r="C193" t="n">
-        <v>4.831644</v>
+        <v>6.873261</v>
       </c>
       <c r="D193" t="n">
-        <v>0.982169</v>
+        <v>0.97185</v>
       </c>
     </row>
     <row r="194">
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-7.15318</v>
+        <v>2.153891</v>
       </c>
       <c r="C194" t="n">
-        <v>3.436407</v>
+        <v>7.510295</v>
       </c>
       <c r="D194" t="n">
-        <v>0.98216</v>
+        <v>0.971842</v>
       </c>
     </row>
     <row r="195">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-7.7264</v>
+        <v>0.531981</v>
       </c>
       <c r="C195" t="n">
-        <v>1.889178</v>
+        <v>7.81346</v>
       </c>
       <c r="D195" t="n">
-        <v>0.982152</v>
+        <v>0.9718329999999999</v>
       </c>
     </row>
     <row r="196">
@@ -3566,13 +3566,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-7.968036</v>
+        <v>-1.117448</v>
       </c>
       <c r="C196" t="n">
-        <v>0.256967</v>
+        <v>7.770062</v>
       </c>
       <c r="D196" t="n">
-        <v>0.982144</v>
+        <v>0.971824</v>
       </c>
     </row>
     <row r="197">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-7.86847</v>
+        <v>-2.721364</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.390027</v>
+        <v>7.382825</v>
       </c>
       <c r="D197" t="n">
-        <v>0.982136</v>
+        <v>0.971816</v>
       </c>
     </row>
     <row r="198">
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-7.43272</v>
+        <v>-4.20925</v>
       </c>
       <c r="C198" t="n">
-        <v>-2.981448</v>
+        <v>6.669597</v>
       </c>
       <c r="D198" t="n">
-        <v>0.982128</v>
+        <v>0.971808</v>
       </c>
     </row>
     <row r="199">
@@ -3614,13 +3614,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-6.680057</v>
+        <v>-5.516165</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.44978</v>
+        <v>5.662386</v>
       </c>
       <c r="D199" t="n">
-        <v>0.98212</v>
+        <v>0.971799</v>
       </c>
     </row>
     <row r="200">
@@ -3630,13 +3630,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-5.643036</v>
+        <v>-6.585511</v>
       </c>
       <c r="C200" t="n">
-        <v>-5.733169</v>
+        <v>4.405803</v>
       </c>
       <c r="D200" t="n">
-        <v>0.982113</v>
+        <v>0.971791</v>
       </c>
     </row>
     <row r="201">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-4.365966</v>
+        <v>-7.371398</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.777962</v>
+        <v>2.954982</v>
       </c>
       <c r="D201" t="n">
-        <v>0.982105</v>
+        <v>0.971783</v>
       </c>
     </row>
     <row r="202">
@@ -3662,13 +3662,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-2.902933</v>
+        <v>-7.840502</v>
       </c>
       <c r="C202" t="n">
-        <v>-7.540873</v>
+        <v>1.373072</v>
       </c>
       <c r="D202" t="n">
-        <v>0.982097</v>
+        <v>0.9717750000000001</v>
       </c>
     </row>
     <row r="203">
@@ -3678,13 +3678,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1.315424</v>
+        <v>-7.973357</v>
       </c>
       <c r="C203" t="n">
-        <v>-7.990669</v>
+        <v>-0.271571</v>
       </c>
       <c r="D203" t="n">
-        <v>0.98209</v>
+        <v>0.971767</v>
       </c>
     </row>
     <row r="204">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.330303</v>
+        <v>-7.765029</v>
       </c>
       <c r="C204" t="n">
-        <v>-8.109339</v>
+        <v>-1.908367</v>
       </c>
       <c r="D204" t="n">
-        <v>0.982082</v>
+        <v>0.971759</v>
       </c>
     </row>
     <row r="205">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1.966018</v>
+        <v>-7.225165</v>
       </c>
       <c r="C205" t="n">
-        <v>-7.892693</v>
+        <v>-3.467548</v>
       </c>
       <c r="D205" t="n">
-        <v>0.982075</v>
+        <v>0.971751</v>
       </c>
     </row>
     <row r="206">
@@ -3726,13 +3726,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3.524351</v>
+        <v>-6.377418</v>
       </c>
       <c r="C206" t="n">
-        <v>-7.350383</v>
+        <v>-4.883113</v>
       </c>
       <c r="D206" t="n">
-        <v>0.982067</v>
+        <v>0.9717440000000001</v>
       </c>
     </row>
     <row r="207">
@@ -3742,13 +3742,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4.941542</v>
+        <v>-5.258291</v>
       </c>
       <c r="C207" t="n">
-        <v>-6.505358</v>
+        <v>-6.095571</v>
       </c>
       <c r="D207" t="n">
-        <v>0.98206</v>
+        <v>0.971736</v>
       </c>
     </row>
     <row r="208">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>6.160014</v>
+        <v>-3.915458</v>
       </c>
       <c r="C208" t="n">
-        <v>-5.392781</v>
+        <v>-7.054372</v>
       </c>
       <c r="D208" t="n">
-        <v>0.982053</v>
+        <v>0.971728</v>
       </c>
     </row>
     <row r="209">
@@ -3774,13 +3774,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>7.13064</v>
+        <v>-2.405642</v>
       </c>
       <c r="C209" t="n">
-        <v>-4.05847</v>
+        <v>-7.719923</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9820449999999999</v>
+        <v>0.9717209999999999</v>
       </c>
     </row>
     <row r="210">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>7.814645</v>
+        <v>-0.792156</v>
       </c>
       <c r="C210" t="n">
-        <v>-2.556926</v>
+        <v>-8.06512</v>
       </c>
       <c r="D210" t="n">
-        <v>0.982038</v>
+        <v>0.971713</v>
       </c>
     </row>
     <row r="211">
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>8.18506</v>
+        <v>0.857806</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.949041</v>
+        <v>-8.076336</v>
       </c>
       <c r="D211" t="n">
-        <v>0.982031</v>
+        <v>0.971706</v>
       </c>
     </row>
     <row r="212">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>8.227675</v>
+        <v>2.475981</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7004089999999999</v>
+        <v>-7.753831</v>
       </c>
       <c r="D212" t="n">
-        <v>0.982024</v>
+        <v>0.971698</v>
       </c>
     </row>
     <row r="213">
@@ -3838,13 +3838,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7.941478</v>
+        <v>3.995861</v>
       </c>
       <c r="C213" t="n">
-        <v>2.325398</v>
+        <v>-7.111597</v>
       </c>
       <c r="D213" t="n">
-        <v>0.982017</v>
+        <v>0.971691</v>
       </c>
     </row>
     <row r="214">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>7.338548</v>
+        <v>5.355398</v>
       </c>
       <c r="C214" t="n">
-        <v>3.861294</v>
+        <v>-6.176632</v>
       </c>
       <c r="D214" t="n">
-        <v>0.98201</v>
+        <v>0.971684</v>
       </c>
     </row>
     <row r="215">
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.443446</v>
+        <v>6.499484</v>
       </c>
       <c r="C215" t="n">
-        <v>5.247401</v>
+        <v>-4.987696</v>
       </c>
       <c r="D215" t="n">
-        <v>0.982004</v>
+        <v>0.971677</v>
       </c>
     </row>
     <row r="216">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>5.292109</v>
+        <v>7.382118</v>
       </c>
       <c r="C216" t="n">
-        <v>6.429316</v>
+        <v>-3.593617</v>
       </c>
       <c r="D216" t="n">
-        <v>0.981997</v>
+        <v>0.97167</v>
       </c>
     </row>
     <row r="217">
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3.930325</v>
+        <v>7.968165</v>
       </c>
       <c r="C217" t="n">
-        <v>7.361005</v>
+        <v>-2.051201</v>
       </c>
       <c r="D217" t="n">
-        <v>0.98199</v>
+        <v>0.9716630000000001</v>
       </c>
     </row>
     <row r="218">
@@ -3918,13 +3918,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2.411832</v>
+        <v>8.234659000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>8.006512000000001</v>
+        <v>-0.422864</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9819830000000001</v>
+        <v>0.971656</v>
       </c>
     </row>
     <row r="219">
@@ -3934,13 +3934,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.796146</v>
+        <v>8.171588</v>
       </c>
       <c r="C219" t="n">
-        <v>8.341262</v>
+        <v>1.225931</v>
       </c>
       <c r="D219" t="n">
-        <v>0.981977</v>
+        <v>0.971649</v>
       </c>
     </row>
     <row r="220">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-0.853813</v>
+        <v>7.782162</v>
       </c>
       <c r="C220" t="n">
-        <v>8.352893</v>
+        <v>2.829317</v>
       </c>
       <c r="D220" t="n">
-        <v>0.98197</v>
+        <v>0.971642</v>
       </c>
     </row>
     <row r="221">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-2.474185</v>
+        <v>7.082545</v>
       </c>
       <c r="C221" t="n">
-        <v>8.041613</v>
+        <v>4.323652</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9819639999999999</v>
+        <v>0.971635</v>
       </c>
     </row>
     <row r="222">
@@ -3982,13 +3982,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-4.00264</v>
+        <v>6.101078</v>
       </c>
       <c r="C222" t="n">
-        <v>7.420062</v>
+        <v>5.650008</v>
       </c>
       <c r="D222" t="n">
-        <v>0.981957</v>
+        <v>0.971628</v>
       </c>
     </row>
     <row r="223">
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-5.380752</v>
+        <v>4.877033</v>
       </c>
       <c r="C223" t="n">
-        <v>6.5127</v>
+        <v>6.75645</v>
       </c>
       <c r="D223" t="n">
-        <v>0.981951</v>
+        <v>0.971622</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-6.556194</v>
+        <v>3.458961</v>
       </c>
       <c r="C224" t="n">
-        <v>5.354754</v>
+        <v>7.599998</v>
       </c>
       <c r="D224" t="n">
-        <v>0.981945</v>
+        <v>0.971615</v>
       </c>
     </row>
     <row r="225">
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-7.484659</v>
+        <v>1.902698</v>
       </c>
       <c r="C225" t="n">
-        <v>3.990771</v>
+        <v>8.148217000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>0.981938</v>
+        <v>0.971608</v>
       </c>
     </row>
   </sheetData>

--- a/problem2/result2.xlsx
+++ b/problem2/result2.xlsx
@@ -434,11 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>横坐标x (m)</t>
@@ -462,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.885297</v>
+        <v>1.296684</v>
       </c>
       <c r="C2" t="n">
-        <v>1.229119</v>
+        <v>1.881044</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -478,13 +474,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.793696</v>
+        <v>-1.562686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.230416</v>
+        <v>1.820989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.990848</v>
+        <v>0.991479</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +490,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.099337</v>
+        <v>-2.425056</v>
       </c>
       <c r="C4" t="n">
-        <v>1.221554</v>
+        <v>0.414285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.989747</v>
+        <v>0.990438</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +506,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.458154</v>
+        <v>-2.20373</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.388959</v>
+        <v>-1.220804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988758</v>
+        <v>0.989499</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +522,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.729934</v>
+        <v>-1.017428</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.869565</v>
+        <v>-2.367621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.987865</v>
+        <v>0.988649</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +538,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.24673</v>
+        <v>0.621438</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.59248</v>
+        <v>-2.558978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.987053</v>
+        <v>0.9878749999999999</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +554,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.373063</v>
+        <v>2.052095</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.278198</v>
+        <v>-1.736955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.986313</v>
+        <v>0.987167</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +570,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.495369</v>
+        <v>2.732545</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.068682</v>
+        <v>-0.233796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.985635</v>
+        <v>0.986517</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +586,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.709296</v>
+        <v>2.426757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.567391</v>
+        <v>1.387621</v>
       </c>
       <c r="D10" t="n">
-        <v>0.985012</v>
+        <v>0.985919</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +602,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.953756</v>
+        <v>1.259413</v>
       </c>
       <c r="C11" t="n">
-        <v>2.034244</v>
+        <v>2.553729</v>
       </c>
       <c r="D11" t="n">
-        <v>0.984436</v>
+        <v>0.985366</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +618,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.506641</v>
+        <v>-0.358795</v>
       </c>
       <c r="C12" t="n">
-        <v>2.826936</v>
+        <v>2.87607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.983904</v>
+        <v>0.984853</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +634,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.137825</v>
+        <v>-1.8905</v>
       </c>
       <c r="C13" t="n">
-        <v>2.691913</v>
+        <v>2.262574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.98341</v>
+        <v>0.9843769999999999</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +650,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.446758</v>
+        <v>-2.852346</v>
       </c>
       <c r="C14" t="n">
-        <v>1.687326</v>
+        <v>0.92192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.98295</v>
+        <v>0.9839329999999999</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +666,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.017751</v>
+        <v>-2.958572</v>
       </c>
       <c r="C15" t="n">
-        <v>0.139274</v>
+        <v>-0.724657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.982521</v>
+        <v>0.983518</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +682,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.689747</v>
+        <v>-2.190225</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.477796</v>
+        <v>-2.184843</v>
       </c>
       <c r="D16" t="n">
-        <v>0.982119</v>
+        <v>0.983129</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +698,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.571435</v>
+        <v>-0.780352</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.691005</v>
+        <v>-3.042024</v>
       </c>
       <c r="D17" t="n">
-        <v>0.981743</v>
+        <v>0.982765</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +714,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009689</v>
+        <v>0.8694770000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.162753</v>
+        <v>-3.06578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.98139</v>
+        <v>0.982422</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +730,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.613146</v>
+        <v>2.309845</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.773617</v>
+        <v>-2.260896</v>
       </c>
       <c r="D19" t="n">
-        <v>0.981057</v>
+        <v>0.9820990000000001</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +746,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.810952</v>
+        <v>3.164947</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.638822</v>
+        <v>-0.849761</v>
       </c>
       <c r="D20" t="n">
-        <v>0.980743</v>
+        <v>0.9817939999999999</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +762,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.29776</v>
+        <v>3.223684</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.062269</v>
+        <v>0.799193</v>
       </c>
       <c r="D21" t="n">
-        <v>0.980447</v>
+        <v>0.981506</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +778,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.95972</v>
+        <v>2.481355</v>
       </c>
       <c r="C22" t="n">
-        <v>1.552732</v>
+        <v>2.272776</v>
       </c>
       <c r="D22" t="n">
-        <v>0.980167</v>
+        <v>0.9812340000000001</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +794,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.890012</v>
+        <v>1.127565</v>
       </c>
       <c r="C23" t="n">
-        <v>2.809007</v>
+        <v>3.216044</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9799020000000001</v>
+        <v>0.980975</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +810,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.353434</v>
+        <v>-0.510697</v>
       </c>
       <c r="C24" t="n">
-        <v>3.410194</v>
+        <v>3.412501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.97965</v>
+        <v>0.98073</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +826,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.285992</v>
+        <v>-2.052767</v>
       </c>
       <c r="C25" t="n">
-        <v>3.223688</v>
+        <v>2.825542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.979411</v>
+        <v>0.980496</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +842,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.653869</v>
+        <v>-3.153076</v>
       </c>
       <c r="C26" t="n">
-        <v>2.300968</v>
+        <v>1.595981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.979183</v>
+        <v>0.980274</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +858,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.449254</v>
+        <v>-3.57498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.855332</v>
+        <v>0.000833</v>
       </c>
       <c r="D27" t="n">
-        <v>0.978966</v>
+        <v>0.980063</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +874,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.505766</v>
+        <v>-3.235337</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7937</v>
+        <v>-1.613832</v>
       </c>
       <c r="D28" t="n">
-        <v>0.97876</v>
+        <v>0.979861</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +890,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.819334</v>
+        <v>-2.213424</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.294137</v>
+        <v>-2.909284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.978563</v>
+        <v>0.979668</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +906,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.540129</v>
+        <v>-0.725867</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.336315</v>
+        <v>-3.623198</v>
       </c>
       <c r="D30" t="n">
-        <v>0.978374</v>
+        <v>0.979483</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +922,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.066188</v>
+        <v>0.924125</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.71347</v>
+        <v>-3.618239</v>
       </c>
       <c r="D31" t="n">
-        <v>0.978194</v>
+        <v>0.979307</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +938,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.677308</v>
+        <v>2.410826</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.357391</v>
+        <v>-2.902542</v>
       </c>
       <c r="D32" t="n">
-        <v>0.978021</v>
+        <v>0.979138</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +954,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.97987</v>
+        <v>3.449805</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.344558</v>
+        <v>-1.620738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9778559999999999</v>
+        <v>0.978976</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +970,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.728715</v>
+        <v>3.849497</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.874275</v>
+        <v>-0.01988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.977697</v>
+        <v>0.97882</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +986,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.789287</v>
+        <v>3.542052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.774613</v>
+        <v>1.601224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.977544</v>
+        <v>0.978671</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1002,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.156909</v>
+        <v>2.589702</v>
       </c>
       <c r="C36" t="n">
-        <v>2.29862</v>
+        <v>2.94864</v>
       </c>
       <c r="D36" t="n">
-        <v>0.977398</v>
+        <v>0.978527</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1018,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.951449</v>
+        <v>1.167575</v>
       </c>
       <c r="C37" t="n">
-        <v>3.425281</v>
+        <v>3.785333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.977257</v>
+        <v>0.978389</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1034,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.390392</v>
+        <v>-0.472071</v>
       </c>
       <c r="C38" t="n">
-        <v>3.959699</v>
+        <v>3.969891</v>
       </c>
       <c r="D38" t="n">
-        <v>0.977122</v>
+        <v>0.978256</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1050,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.253224</v>
+        <v>-2.046546</v>
       </c>
       <c r="C39" t="n">
-        <v>3.814701</v>
+        <v>3.476407</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9769910000000001</v>
+        <v>0.978128</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1066,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.699669</v>
+        <v>-3.291629</v>
       </c>
       <c r="C40" t="n">
-        <v>3.020787</v>
+        <v>2.393693</v>
       </c>
       <c r="D40" t="n">
-        <v>0.976865</v>
+        <v>0.978004</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1082,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.70945</v>
+        <v>-4.004409</v>
       </c>
       <c r="C41" t="n">
-        <v>1.715857</v>
+        <v>0.905592</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9767439999999999</v>
+        <v>0.977885</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1098,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.120807</v>
+        <v>-4.073594</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117957</v>
+        <v>-0.742957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.976627</v>
+        <v>0.97777</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +1114,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-3.872442</v>
+        <v>-3.4934</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.513243</v>
+        <v>-2.287584</v>
       </c>
       <c r="D43" t="n">
-        <v>0.976514</v>
+        <v>0.977658</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1130,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-3.00901</v>
+        <v>-2.360074</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.919296</v>
+        <v>-3.48678</v>
       </c>
       <c r="D44" t="n">
-        <v>0.976405</v>
+        <v>0.9775509999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1146,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1.669802</v>
+        <v>-0.852872</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.883153</v>
+        <v>-4.158229</v>
       </c>
       <c r="D45" t="n">
-        <v>0.976299</v>
+        <v>0.977447</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1162,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.063581</v>
+        <v>0.79649</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.260719</v>
+        <v>-4.204105</v>
       </c>
       <c r="D46" t="n">
-        <v>0.976197</v>
+        <v>0.977347</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1178,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.565634</v>
+        <v>2.340531</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.999649</v>
+        <v>-3.622351</v>
       </c>
       <c r="D47" t="n">
-        <v>0.976098</v>
+        <v>0.977249</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.976136</v>
+        <v>3.553008</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.143504</v>
+        <v>-2.503244</v>
       </c>
       <c r="D48" t="n">
-        <v>0.976002</v>
+        <v>0.977155</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1210,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.963713</v>
+        <v>4.260857</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.82169</v>
+        <v>-1.012792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9759100000000001</v>
+        <v>0.977064</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1226,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.389569</v>
+        <v>4.366862</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.227592</v>
+        <v>0.6338</v>
       </c>
       <c r="D50" t="n">
-        <v>0.97582</v>
+        <v>0.976975</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1242,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.19752</v>
+        <v>3.86048</v>
       </c>
       <c r="C51" t="n">
-        <v>1.411193</v>
+        <v>2.204175</v>
       </c>
       <c r="D51" t="n">
-        <v>0.975732</v>
+        <v>0.976889</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1258,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.418771</v>
+        <v>2.81613</v>
       </c>
       <c r="C52" t="n">
-        <v>2.865858</v>
+        <v>3.481607</v>
       </c>
       <c r="D52" t="n">
-        <v>0.975648</v>
+        <v>0.976806</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1274,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.164454</v>
+        <v>1.379975</v>
       </c>
       <c r="C53" t="n">
-        <v>3.93786</v>
+        <v>4.293985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.975566</v>
+        <v>0.976725</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1290,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6077129999999999</v>
+        <v>-0.252276</v>
       </c>
       <c r="C54" t="n">
-        <v>4.484723</v>
+        <v>4.535353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.975486</v>
+        <v>0.976646</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1306,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.041598</v>
+        <v>-1.863032</v>
       </c>
       <c r="C55" t="n">
-        <v>4.437066</v>
+        <v>4.177631</v>
       </c>
       <c r="D55" t="n">
-        <v>0.975409</v>
+        <v>0.97657</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1322,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-2.565814</v>
+        <v>-3.242009</v>
       </c>
       <c r="C56" t="n">
-        <v>3.805191</v>
+        <v>3.271583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.975333</v>
+        <v>0.976495</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1338,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3.767971</v>
+        <v>-4.213073</v>
       </c>
       <c r="C57" t="n">
-        <v>2.675006</v>
+        <v>1.937592</v>
       </c>
       <c r="D57" t="n">
-        <v>0.97526</v>
+        <v>0.976423</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1354,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-4.496319</v>
+        <v>-4.65548</v>
       </c>
       <c r="C58" t="n">
-        <v>1.194462</v>
+        <v>0.348008</v>
       </c>
       <c r="D58" t="n">
-        <v>0.975189</v>
+        <v>0.976353</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1370,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-4.661971</v>
+        <v>-4.517171</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.447202</v>
+        <v>-1.296185</v>
       </c>
       <c r="D59" t="n">
-        <v>0.97512</v>
+        <v>0.976284</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1386,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4.247906</v>
+        <v>-3.818971</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.044402</v>
+        <v>-2.791182</v>
       </c>
       <c r="D60" t="n">
-        <v>0.975052</v>
+        <v>0.976218</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1402,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-3.308718</v>
+        <v>-2.649683</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.401025</v>
+        <v>-3.95534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.974986</v>
+        <v>0.976153</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1418,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1.96169</v>
+        <v>-1.153208</v>
       </c>
       <c r="C62" t="n">
-        <v>-4.353923</v>
+        <v>-4.650368</v>
       </c>
       <c r="D62" t="n">
-        <v>0.974922</v>
+        <v>0.97609</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1434,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.370747</v>
+        <v>0.490315</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.791418</v>
+        <v>-4.796421</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9748599999999999</v>
+        <v>0.976028</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1450,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.274395</v>
+        <v>2.086817</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.664901</v>
+        <v>-4.379669</v>
       </c>
       <c r="D64" t="n">
-        <v>0.974799</v>
+        <v>0.9759679999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +1466,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.781199</v>
+        <v>3.451252</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.992561</v>
+        <v>-3.451867</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9747400000000001</v>
+        <v>0.9759100000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1486,13 +1482,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.976609</v>
+        <v>4.428545</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.855242</v>
+        <v>-2.122432</v>
       </c>
       <c r="D66" t="n">
-        <v>0.974682</v>
+        <v>0.9758520000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1498,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.72619</v>
+        <v>4.910259</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.385335</v>
+        <v>-0.544315</v>
       </c>
       <c r="D67" t="n">
-        <v>0.974626</v>
+        <v>0.975797</v>
       </c>
     </row>
     <row r="68">
@@ -1518,13 +1514,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.948118</v>
+        <v>4.845346</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249672</v>
+        <v>1.104408</v>
       </c>
       <c r="D68" t="n">
-        <v>0.974571</v>
+        <v>0.975742</v>
       </c>
     </row>
     <row r="69">
@@ -1534,13 +1530,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.620734</v>
+        <v>4.244117</v>
       </c>
       <c r="C69" t="n">
-        <v>1.866867</v>
+        <v>2.64097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.974517</v>
+        <v>0.975689</v>
       </c>
     </row>
     <row r="70">
@@ -1550,13 +1546,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.783173</v>
+        <v>3.175334</v>
       </c>
       <c r="C70" t="n">
-        <v>3.288484</v>
+        <v>3.898031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.974465</v>
+        <v>0.975637</v>
       </c>
     </row>
     <row r="71">
@@ -1566,13 +1562,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.529362</v>
+        <v>1.757107</v>
       </c>
       <c r="C71" t="n">
-        <v>4.361077</v>
+        <v>4.741318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.974413</v>
+        <v>0.975587</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1578,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.996358</v>
+        <v>0.142879</v>
       </c>
       <c r="C72" t="n">
-        <v>4.971323</v>
+        <v>5.083032</v>
       </c>
       <c r="D72" t="n">
-        <v>0.974363</v>
+        <v>0.975537</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1594,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.65142</v>
+        <v>-1.49577</v>
       </c>
       <c r="C73" t="n">
-        <v>5.05693</v>
+        <v>4.889827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.974314</v>
+        <v>0.9754890000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1614,13 +1610,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-2.240232</v>
+        <v>-2.98755</v>
       </c>
       <c r="C74" t="n">
-        <v>4.611761</v>
+        <v>4.184778</v>
       </c>
       <c r="D74" t="n">
-        <v>0.974266</v>
+        <v>0.975441</v>
       </c>
     </row>
     <row r="75">
@@ -1630,13 +1626,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-3.605325</v>
+        <v>-4.179143</v>
       </c>
       <c r="C75" t="n">
-        <v>3.684927</v>
+        <v>3.04346</v>
       </c>
       <c r="D75" t="n">
-        <v>0.97422</v>
+        <v>0.975395</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1642,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-4.607616</v>
+        <v>-4.950389</v>
       </c>
       <c r="C76" t="n">
-        <v>2.374236</v>
+        <v>1.584803</v>
       </c>
       <c r="D76" t="n">
-        <v>0.974174</v>
+        <v>0.9753500000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1658,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-5.14714</v>
+        <v>-5.225536</v>
       </c>
       <c r="C77" t="n">
-        <v>0.814937</v>
+        <v>-0.042094</v>
       </c>
       <c r="D77" t="n">
-        <v>0.974129</v>
+        <v>0.975305</v>
       </c>
     </row>
     <row r="78">
@@ -1678,13 +1674,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-5.17206</v>
+        <v>-4.979644</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.834875</v>
+        <v>-1.673669</v>
       </c>
       <c r="D78" t="n">
-        <v>0.974085</v>
+        <v>0.975262</v>
       </c>
     </row>
     <row r="79">
@@ -1694,13 +1690,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-4.682552</v>
+        <v>-4.239721</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.410591</v>
+        <v>-3.148462</v>
       </c>
       <c r="D79" t="n">
-        <v>0.974042</v>
+        <v>0.9752189999999999</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1706,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-3.729437</v>
+        <v>-3.080726</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.757467</v>
+        <v>-4.322868</v>
       </c>
       <c r="D80" t="n">
-        <v>0.974</v>
+        <v>0.975178</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1722,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-2.407919</v>
+        <v>-1.617076</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.745439</v>
+        <v>-5.084596</v>
       </c>
       <c r="D81" t="n">
-        <v>0.973959</v>
+        <v>0.975137</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1738,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.847268</v>
+        <v>0.009327999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>-5.281041</v>
+        <v>-5.362644</v>
       </c>
       <c r="D82" t="n">
-        <v>0.973919</v>
+        <v>0.975097</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1754,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.802374</v>
+        <v>1.643269</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.315395</v>
+        <v>-5.132999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9738790000000001</v>
+        <v>0.975058</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1770,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.384707</v>
+        <v>3.131133</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.847718</v>
+        <v>-4.419726</v>
       </c>
       <c r="D84" t="n">
-        <v>0.973841</v>
+        <v>0.97502</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1786,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.752044</v>
+        <v>4.335168</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.924198</v>
+        <v>-3.291542</v>
       </c>
       <c r="D85" t="n">
-        <v>0.973803</v>
+        <v>0.974982</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1802,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.778778</v>
+        <v>5.145785</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.632564</v>
+        <v>-1.854392</v>
       </c>
       <c r="D86" t="n">
-        <v>0.973766</v>
+        <v>0.974945</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1818,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5.372366</v>
+        <v>5.490881</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.093034</v>
+        <v>-0.240883</v>
       </c>
       <c r="D87" t="n">
-        <v>0.973729</v>
+        <v>0.974909</v>
       </c>
     </row>
     <row r="88">
@@ -1838,13 +1834,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.480942</v>
+        <v>5.341458</v>
       </c>
       <c r="C88" t="n">
-        <v>0.55339</v>
+        <v>1.402337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9736939999999999</v>
+        <v>0.974874</v>
       </c>
     </row>
     <row r="89">
@@ -1854,13 +1850,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5.097008</v>
+        <v>4.713193</v>
       </c>
       <c r="C89" t="n">
-        <v>2.1581</v>
+        <v>2.928044</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9736590000000001</v>
+        <v>0.974839</v>
       </c>
     </row>
     <row r="90">
@@ -1870,13 +1866,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.257056</v>
+        <v>3.664001</v>
       </c>
       <c r="C90" t="n">
-        <v>3.578305</v>
+        <v>4.201503</v>
       </c>
       <c r="D90" t="n">
-        <v>0.973624</v>
+        <v>0.974805</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1882,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3.037321</v>
+        <v>2.287964</v>
       </c>
       <c r="C91" t="n">
-        <v>4.689496</v>
+        <v>5.11201</v>
       </c>
       <c r="D91" t="n">
-        <v>0.973591</v>
+        <v>0.974772</v>
       </c>
     </row>
     <row r="92">
@@ -1902,13 +1898,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.546188</v>
+        <v>0.706309</v>
       </c>
       <c r="C92" t="n">
-        <v>5.395913</v>
+        <v>5.581974</v>
       </c>
       <c r="D92" t="n">
-        <v>0.973557</v>
+        <v>0.974739</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1914,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.08592900000000001</v>
+        <v>-0.943666</v>
       </c>
       <c r="C93" t="n">
-        <v>5.638179</v>
+        <v>5.572851</v>
       </c>
       <c r="D93" t="n">
-        <v>0.973525</v>
+        <v>0.974707</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1930,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-1.718292</v>
+        <v>-2.520684</v>
       </c>
       <c r="C94" t="n">
-        <v>5.397573</v>
+        <v>5.087553</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9734930000000001</v>
+        <v>0.974675</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1946,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-3.212038</v>
+        <v>-3.891542</v>
       </c>
       <c r="C95" t="n">
-        <v>4.6967</v>
+        <v>4.169268</v>
       </c>
       <c r="D95" t="n">
-        <v>0.973462</v>
+        <v>0.974644</v>
       </c>
     </row>
     <row r="96">
@@ -1966,13 +1962,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-4.441847</v>
+        <v>-4.94211</v>
       </c>
       <c r="C96" t="n">
-        <v>3.596668</v>
+        <v>2.896944</v>
       </c>
       <c r="D96" t="n">
-        <v>0.973431</v>
+        <v>0.974613</v>
       </c>
     </row>
     <row r="97">
@@ -1982,13 +1978,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-5.306112</v>
+        <v>-5.5864</v>
       </c>
       <c r="C97" t="n">
-        <v>2.191127</v>
+        <v>1.377935</v>
       </c>
       <c r="D97" t="n">
-        <v>0.973401</v>
+        <v>0.974583</v>
       </c>
     </row>
     <row r="98">
@@ -1998,13 +1994,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-5.734835</v>
+        <v>-5.773044</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5977980000000001</v>
+        <v>-0.261475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.973371</v>
+        <v>0.974554</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2010,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-5.694684</v>
+        <v>-5.488736</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.051713</v>
+        <v>-1.886796</v>
       </c>
       <c r="D99" t="n">
-        <v>0.973342</v>
+        <v>0.974525</v>
       </c>
     </row>
     <row r="100">
@@ -2030,13 +2026,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-5.190914</v>
+        <v>-4.7585</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.622928</v>
+        <v>-3.366409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.973313</v>
+        <v>0.9744969999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2046,13 +2042,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-4.266121</v>
+        <v>-3.642858</v>
       </c>
       <c r="C101" t="n">
-        <v>-3.989405</v>
+        <v>-4.582076</v>
       </c>
       <c r="D101" t="n">
-        <v>0.973285</v>
+        <v>0.974469</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2058,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-2.996042</v>
+        <v>-2.232266</v>
       </c>
       <c r="C102" t="n">
-        <v>-5.042685</v>
+        <v>-5.438071</v>
       </c>
       <c r="D102" t="n">
-        <v>0.973257</v>
+        <v>0.974441</v>
       </c>
     </row>
     <row r="103">
@@ -2078,13 +2074,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.482848</v>
+        <v>-0.639337</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.700517</v>
+        <v>-5.868276</v>
       </c>
       <c r="D103" t="n">
-        <v>0.97323</v>
+        <v>0.974414</v>
       </c>
     </row>
     <row r="104">
@@ -2094,13 +2090,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.153442</v>
+        <v>1.010434</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.91278</v>
+        <v>-5.840738</v>
       </c>
       <c r="D104" t="n">
-        <v>0.973204</v>
+        <v>0.974388</v>
       </c>
     </row>
     <row r="105">
@@ -2110,13 +2106,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.78469</v>
+        <v>2.58868</v>
       </c>
       <c r="C105" t="n">
-        <v>-5.664731</v>
+        <v>-5.35945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.973177</v>
+        <v>0.974362</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2122,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.284722</v>
+        <v>3.974116</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.977415</v>
+        <v>-4.46331</v>
       </c>
       <c r="D106" t="n">
-        <v>0.973151</v>
+        <v>0.974336</v>
       </c>
     </row>
     <row r="107">
@@ -2142,13 +2138,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.538968</v>
+        <v>5.061656</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.905329</v>
+        <v>-3.222441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.973126</v>
+        <v>0.974311</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2154,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5.452945</v>
+        <v>5.770056</v>
       </c>
       <c r="C108" t="n">
-        <v>-2.531595</v>
+        <v>-1.73225</v>
       </c>
       <c r="D108" t="n">
-        <v>0.973101</v>
+        <v>0.974286</v>
       </c>
     </row>
     <row r="109">
@@ -2174,13 +2170,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5.958992</v>
+        <v>6.047545</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.961112</v>
+        <v>-0.10575</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9730760000000001</v>
+        <v>0.974261</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2186,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.020805</v>
+        <v>5.875103</v>
       </c>
       <c r="C110" t="n">
-        <v>0.68773</v>
+        <v>1.535214</v>
       </c>
       <c r="D110" t="n">
-        <v>0.973052</v>
+        <v>0.974237</v>
       </c>
     </row>
     <row r="111">
@@ -2206,13 +2202,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.635513</v>
+        <v>5.26723</v>
       </c>
       <c r="C111" t="n">
-        <v>2.292115</v>
+        <v>3.06916</v>
       </c>
       <c r="D111" t="n">
-        <v>0.973028</v>
+        <v>0.974214</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2218,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.833241</v>
+        <v>4.270223</v>
       </c>
       <c r="C112" t="n">
-        <v>3.73394</v>
+        <v>4.383876</v>
       </c>
       <c r="D112" t="n">
-        <v>0.973005</v>
+        <v>0.97419</v>
       </c>
     </row>
     <row r="113">
@@ -2238,13 +2234,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.674263</v>
+        <v>2.958196</v>
       </c>
       <c r="C113" t="n">
-        <v>4.908363</v>
+        <v>5.384418</v>
       </c>
       <c r="D113" t="n">
-        <v>0.972981</v>
+        <v>0.974167</v>
       </c>
     </row>
     <row r="114">
@@ -2254,13 +2250,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.244051</v>
+        <v>1.427185</v>
       </c>
       <c r="C114" t="n">
-        <v>5.731159</v>
+        <v>5.999645</v>
       </c>
       <c r="D114" t="n">
-        <v>0.972959</v>
+        <v>0.974145</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2266,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.646634</v>
+        <v>-0.212159</v>
       </c>
       <c r="C115" t="n">
-        <v>6.144389</v>
+        <v>6.186864</v>
       </c>
       <c r="D115" t="n">
-        <v>0.972936</v>
+        <v>0.974122</v>
       </c>
     </row>
     <row r="116">
@@ -2286,13 +2282,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-1.003186</v>
+        <v>-1.842721</v>
       </c>
       <c r="C116" t="n">
-        <v>6.120047</v>
+        <v>5.934338</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9729139999999999</v>
+        <v>0.9741</v>
       </c>
     </row>
     <row r="117">
@@ -2302,13 +2298,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-2.588184</v>
+        <v>-3.349318</v>
       </c>
       <c r="C117" t="n">
-        <v>5.66148</v>
+        <v>5.261535</v>
       </c>
       <c r="D117" t="n">
-        <v>0.972892</v>
+        <v>0.974079</v>
       </c>
     </row>
     <row r="118">
@@ -2318,13 +2314,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-3.997005</v>
+        <v>-4.626745</v>
       </c>
       <c r="C118" t="n">
-        <v>4.802571</v>
+        <v>4.217179</v>
       </c>
       <c r="D118" t="n">
-        <v>0.972871</v>
+        <v>0.974058</v>
       </c>
     </row>
     <row r="119">
@@ -2334,13 +2330,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-5.131842</v>
+        <v>-5.586911</v>
       </c>
       <c r="C119" t="n">
-        <v>3.604805</v>
+        <v>2.875321</v>
       </c>
       <c r="D119" t="n">
-        <v>0.97285</v>
+        <v>0.974037</v>
       </c>
     </row>
     <row r="120">
@@ -2350,13 +2346,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-5.91497</v>
+        <v>-6.164613</v>
       </c>
       <c r="C120" t="n">
-        <v>2.152493</v>
+        <v>1.32976</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9728290000000001</v>
+        <v>0.974016</v>
       </c>
     </row>
     <row r="121">
@@ -2366,13 +2362,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-6.29373</v>
+        <v>-6.321595</v>
       </c>
       <c r="C121" t="n">
-        <v>0.546554</v>
+        <v>-0.312756</v>
       </c>
       <c r="D121" t="n">
-        <v>0.972809</v>
+        <v>0.973996</v>
       </c>
     </row>
     <row r="122">
@@ -2382,13 +2378,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-6.243677</v>
+        <v>-6.048664</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.102687</v>
+        <v>-1.940026</v>
       </c>
       <c r="D122" t="n">
-        <v>0.972789</v>
+        <v>0.973976</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2394,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-5.769729</v>
+        <v>-5.365793</v>
       </c>
       <c r="C123" t="n">
-        <v>-2.683153</v>
+        <v>-3.442087</v>
       </c>
       <c r="D123" t="n">
-        <v>0.972769</v>
+        <v>0.973956</v>
       </c>
     </row>
     <row r="124">
@@ -2414,13 +2410,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-4.905312</v>
+        <v>-4.320259</v>
       </c>
       <c r="C124" t="n">
-        <v>-4.0886</v>
+        <v>-4.71855</v>
       </c>
       <c r="D124" t="n">
-        <v>0.972749</v>
+        <v>0.973936</v>
       </c>
     </row>
     <row r="125">
@@ -2430,13 +2426,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-3.709618</v>
+        <v>-2.98301</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.225621</v>
+        <v>-5.685124</v>
       </c>
       <c r="D125" t="n">
-        <v>0.97273</v>
+        <v>0.973917</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2442,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.263221</v>
+        <v>-1.443558</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.019622</v>
+        <v>-6.278915</v>
       </c>
       <c r="D126" t="n">
-        <v>0.972711</v>
+        <v>0.973898</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2458,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.662389</v>
+        <v>0.196233</v>
       </c>
       <c r="C127" t="n">
-        <v>-6.419416</v>
+        <v>-6.462179</v>
       </c>
       <c r="D127" t="n">
-        <v>0.972692</v>
+        <v>0.9738790000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2478,13 +2474,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.987499</v>
+        <v>1.829004</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.400167</v>
+        <v>-6.224358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.972673</v>
+        <v>0.973861</v>
       </c>
     </row>
     <row r="129">
@@ -2494,13 +2490,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.578958</v>
+        <v>3.348956</v>
       </c>
       <c r="C129" t="n">
-        <v>-5.964553</v>
+        <v>-5.582294</v>
       </c>
       <c r="D129" t="n">
-        <v>0.972655</v>
+        <v>0.973843</v>
       </c>
     </row>
     <row r="130">
@@ -2510,13 +2506,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.009379</v>
+        <v>4.658632</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.142121</v>
+        <v>-4.578676</v>
       </c>
       <c r="D130" t="n">
-        <v>0.972637</v>
+        <v>0.9738250000000001</v>
       </c>
     </row>
     <row r="131">
@@ -2526,13 +2522,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5.187533</v>
+        <v>5.675008</v>
       </c>
       <c r="C131" t="n">
-        <v>-3.986935</v>
+        <v>-3.278876</v>
       </c>
       <c r="D131" t="n">
-        <v>0.972619</v>
+        <v>0.973807</v>
       </c>
     </row>
     <row r="132">
@@ -2542,13 +2538,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6.039184</v>
+        <v>6.334519</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.573715</v>
+        <v>-1.766412</v>
       </c>
       <c r="D132" t="n">
-        <v>0.972602</v>
+        <v>0.97379</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2554,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6.511511</v>
+        <v>6.596747</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.992764</v>
+        <v>-0.137383</v>
       </c>
       <c r="D133" t="n">
-        <v>0.972584</v>
+        <v>0.973773</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2570,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6.576067</v>
+        <v>6.446565</v>
       </c>
       <c r="C134" t="n">
-        <v>0.655973</v>
+        <v>1.505768</v>
       </c>
       <c r="D134" t="n">
-        <v>0.972567</v>
+        <v>0.973756</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2586,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6.230153</v>
+        <v>5.894664</v>
       </c>
       <c r="C135" t="n">
-        <v>2.269306</v>
+        <v>3.06073</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9725510000000001</v>
+        <v>0.973739</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2602,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>5.496562</v>
+        <v>4.976467</v>
       </c>
       <c r="C136" t="n">
-        <v>3.747259</v>
+        <v>4.431647</v>
       </c>
       <c r="D136" t="n">
-        <v>0.972534</v>
+        <v>0.973722</v>
       </c>
     </row>
     <row r="137">
@@ -2622,13 +2618,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.421759</v>
+        <v>3.749551</v>
       </c>
       <c r="C137" t="n">
-        <v>4.999177</v>
+        <v>5.534904</v>
       </c>
       <c r="D137" t="n">
-        <v>0.972518</v>
+        <v>0.973706</v>
       </c>
     </row>
     <row r="138">
@@ -2638,13 +2634,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.072651</v>
+        <v>2.289776</v>
       </c>
       <c r="C138" t="n">
-        <v>5.949128</v>
+        <v>6.304031</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9725009999999999</v>
+        <v>0.9736900000000001</v>
       </c>
     </row>
     <row r="139">
@@ -2654,13 +2650,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.532184</v>
+        <v>0.686389</v>
       </c>
       <c r="C139" t="n">
-        <v>6.540282</v>
+        <v>6.693454</v>
       </c>
       <c r="D139" t="n">
-        <v>0.972485</v>
+        <v>0.973674</v>
       </c>
     </row>
     <row r="140">
@@ -2670,13 +2666,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-0.105921</v>
+        <v>-0.963564</v>
       </c>
       <c r="C140" t="n">
-        <v>6.738043</v>
+        <v>6.68091</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9724699999999999</v>
+        <v>0.9736590000000001</v>
       </c>
     </row>
     <row r="141">
@@ -2686,13 +2682,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1.742977</v>
+        <v>-2.56117</v>
       </c>
       <c r="C141" t="n">
-        <v>6.531772</v>
+        <v>6.268412</v>
       </c>
       <c r="D141" t="n">
-        <v>0.972454</v>
+        <v>0.973643</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2698,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-3.281292</v>
+        <v>-4.011566</v>
       </c>
       <c r="C142" t="n">
-        <v>5.93504</v>
+        <v>5.481741</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9724390000000001</v>
+        <v>0.973628</v>
       </c>
     </row>
     <row r="143">
@@ -2718,13 +2714,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-4.629948</v>
+        <v>-5.229478</v>
       </c>
       <c r="C143" t="n">
-        <v>4.984447</v>
+        <v>4.368553</v>
       </c>
       <c r="D143" t="n">
-        <v>0.972424</v>
+        <v>0.973613</v>
       </c>
     </row>
     <row r="144">
@@ -2734,13 +2730,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-5.710056</v>
+        <v>-6.144086</v>
       </c>
       <c r="C144" t="n">
-        <v>3.737104</v>
+        <v>2.995238</v>
       </c>
       <c r="D144" t="n">
-        <v>0.972409</v>
+        <v>0.973598</v>
       </c>
     </row>
     <row r="145">
@@ -2750,13 +2746,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-6.459187</v>
+        <v>-6.702928</v>
       </c>
       <c r="C145" t="n">
-        <v>2.266967</v>
+        <v>1.442758</v>
       </c>
       <c r="D145" t="n">
-        <v>0.972394</v>
+        <v>0.973583</v>
       </c>
     </row>
     <row r="146">
@@ -2766,13 +2762,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-6.83475</v>
+        <v>-6.874665</v>
       </c>
       <c r="C146" t="n">
-        <v>0.660277</v>
+        <v>-0.198281</v>
       </c>
       <c r="D146" t="n">
-        <v>0.972379</v>
+        <v>0.973568</v>
       </c>
     </row>
     <row r="147">
@@ -2782,13 +2778,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-6.816156</v>
+        <v>-6.650565</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.989618</v>
+        <v>-1.832991</v>
       </c>
       <c r="D147" t="n">
-        <v>0.972365</v>
+        <v>0.973554</v>
       </c>
     </row>
     <row r="148">
@@ -2798,13 +2794,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-6.405658</v>
+        <v>-6.044659</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.58774</v>
+        <v>-3.367715</v>
       </c>
       <c r="D148" t="n">
-        <v>0.97235</v>
+        <v>0.97354</v>
       </c>
     </row>
     <row r="149">
@@ -2814,13 +2810,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-5.627888</v>
+        <v>-5.092598</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.042928</v>
+        <v>-4.715335</v>
       </c>
       <c r="D149" t="n">
-        <v>0.972336</v>
+        <v>0.973526</v>
       </c>
     </row>
     <row r="150">
@@ -2830,13 +2826,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-4.528109</v>
+        <v>-3.84931</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.272963</v>
+        <v>-5.80011</v>
       </c>
       <c r="D150" t="n">
-        <v>0.972322</v>
+        <v>0.973512</v>
       </c>
     </row>
     <row r="151">
@@ -2846,13 +2842,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-3.169361</v>
+        <v>-2.385624</v>
       </c>
       <c r="C151" t="n">
-        <v>-6.209073</v>
+        <v>-6.561767</v>
       </c>
       <c r="D151" t="n">
-        <v>0.972309</v>
+        <v>0.973498</v>
       </c>
     </row>
     <row r="152">
@@ -2862,13 +2858,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.628651</v>
+        <v>-0.784066</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.799592</v>
+        <v>-6.958645</v>
       </c>
       <c r="D152" t="n">
-        <v>0.972295</v>
+        <v>0.973485</v>
       </c>
     </row>
     <row r="153">
@@ -2878,13 +2874,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.007544</v>
+        <v>0.865897</v>
       </c>
       <c r="C153" t="n">
-        <v>-7.01259</v>
+        <v>-6.969738</v>
       </c>
       <c r="D153" t="n">
-        <v>0.972282</v>
+        <v>0.973472</v>
       </c>
     </row>
     <row r="154">
@@ -2894,13 +2890,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.648212</v>
+        <v>2.472907</v>
       </c>
       <c r="C154" t="n">
-        <v>-6.837352</v>
+        <v>-6.595548</v>
       </c>
       <c r="D154" t="n">
-        <v>0.972268</v>
+        <v>0.973458</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2906,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3.202893</v>
+        <v>3.948766</v>
       </c>
       <c r="C155" t="n">
-        <v>-6.284662</v>
+        <v>-5.857754</v>
       </c>
       <c r="D155" t="n">
-        <v>0.972255</v>
+        <v>0.973445</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2922,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.586626</v>
+        <v>5.213206</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.385895</v>
+        <v>-4.79771</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9722420000000001</v>
+        <v>0.973432</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2938,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>5.724501</v>
+        <v>6.198136</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.191014</v>
+        <v>-3.473923</v>
       </c>
       <c r="D157" t="n">
-        <v>0.97223</v>
+        <v>0.97342</v>
       </c>
     </row>
     <row r="158">
@@ -2958,13 +2954,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>6.55557</v>
+        <v>6.85115</v>
       </c>
       <c r="C158" t="n">
-        <v>-2.765593</v>
+        <v>-1.958643</v>
       </c>
       <c r="D158" t="n">
-        <v>0.972217</v>
+        <v>0.973407</v>
       </c>
     </row>
     <row r="159">
@@ -2974,13 +2970,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7.035934</v>
+        <v>7.13811</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.187065</v>
+        <v>-0.333788</v>
       </c>
       <c r="D159" t="n">
-        <v>0.972204</v>
+        <v>0.973395</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2986,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7.140851</v>
+        <v>7.044718</v>
       </c>
       <c r="C160" t="n">
-        <v>0.459596</v>
+        <v>1.313567</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9721919999999999</v>
+        <v>0.973382</v>
       </c>
     </row>
     <row r="161">
@@ -3006,13 +3002,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6.865782</v>
+        <v>6.576994</v>
       </c>
       <c r="C161" t="n">
-        <v>2.086506</v>
+        <v>2.895886</v>
       </c>
       <c r="D161" t="n">
-        <v>0.97218</v>
+        <v>0.97337</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3018,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6.226349</v>
+        <v>5.760669</v>
       </c>
       <c r="C162" t="n">
-        <v>3.607567</v>
+        <v>4.329801</v>
       </c>
       <c r="D162" t="n">
-        <v>0.972168</v>
+        <v>0.9733579999999999</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3034,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>5.257229</v>
+        <v>4.639566</v>
       </c>
       <c r="C163" t="n">
-        <v>4.942972</v>
+        <v>5.540432</v>
       </c>
       <c r="D163" t="n">
-        <v>0.972156</v>
+        <v>0.973346</v>
       </c>
     </row>
     <row r="164">
@@ -3054,13 +3050,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.010079</v>
+        <v>3.273057</v>
       </c>
       <c r="C164" t="n">
-        <v>6.023303</v>
+        <v>6.465178</v>
       </c>
       <c r="D164" t="n">
-        <v>0.972144</v>
+        <v>0.973334</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3066,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.550602</v>
+        <v>1.73277</v>
       </c>
       <c r="C165" t="n">
-        <v>6.792997</v>
+        <v>7.056799</v>
       </c>
       <c r="D165" t="n">
-        <v>0.972132</v>
+        <v>0.973323</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3082,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.954963</v>
+        <v>0.098717</v>
       </c>
       <c r="C166" t="n">
-        <v>7.213037</v>
+        <v>7.285645</v>
       </c>
       <c r="D166" t="n">
-        <v>0.972121</v>
+        <v>0.973311</v>
       </c>
     </row>
     <row r="167">
@@ -3102,13 +3098,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.694289</v>
+        <v>-1.544926</v>
       </c>
       <c r="C167" t="n">
-        <v>7.262732</v>
+        <v>7.140941</v>
       </c>
       <c r="D167" t="n">
-        <v>0.972109</v>
+        <v>0.9733000000000001</v>
       </c>
     </row>
     <row r="168">
@@ -3118,13 +3114,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-2.312525</v>
+        <v>-3.114174</v>
       </c>
       <c r="C168" t="n">
-        <v>6.940534</v>
+        <v>6.63108</v>
       </c>
       <c r="D168" t="n">
-        <v>0.972098</v>
+        <v>0.973289</v>
       </c>
     </row>
     <row r="169">
@@ -3134,13 +3130,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-3.817384</v>
+        <v>-4.529503</v>
       </c>
       <c r="C169" t="n">
-        <v>6.263851</v>
+        <v>5.782937</v>
       </c>
       <c r="D169" t="n">
-        <v>0.972087</v>
+        <v>0.9732769999999999</v>
       </c>
     </row>
     <row r="170">
@@ -3150,13 +3146,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-5.132911</v>
+        <v>-5.7198</v>
       </c>
       <c r="C170" t="n">
-        <v>5.267915</v>
+        <v>4.640269</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9720760000000001</v>
+        <v>0.973266</v>
       </c>
     </row>
     <row r="171">
@@ -3166,13 +3162,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-6.193303</v>
+        <v>-6.625835</v>
       </c>
       <c r="C171" t="n">
-        <v>4.003767</v>
+        <v>3.261283</v>
       </c>
       <c r="D171" t="n">
-        <v>0.972065</v>
+        <v>0.973256</v>
       </c>
     </row>
     <row r="172">
@@ -3182,13 +3178,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-6.946071</v>
+        <v>-7.203057</v>
       </c>
       <c r="C172" t="n">
-        <v>2.535489</v>
+        <v>1.715542</v>
       </c>
       <c r="D172" t="n">
-        <v>0.972054</v>
+        <v>0.973245</v>
       </c>
     </row>
     <row r="173">
@@ -3198,13 +3194,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-7.354481</v>
+        <v>-7.423618</v>
       </c>
       <c r="C173" t="n">
-        <v>0.936833</v>
+        <v>0.08035</v>
       </c>
       <c r="D173" t="n">
-        <v>0.972043</v>
+        <v>0.973234</v>
       </c>
     </row>
     <row r="174">
@@ -3214,13 +3210,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-7.399172</v>
+        <v>-7.277534</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.712561</v>
+        <v>-1.56317</v>
       </c>
       <c r="D174" t="n">
-        <v>0.972032</v>
+        <v>0.9732229999999999</v>
       </c>
     </row>
     <row r="175">
@@ -3230,13 +3226,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-7.078881</v>
+        <v>-6.772941</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.331176</v>
+        <v>-3.134121</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9720220000000001</v>
+        <v>0.973213</v>
       </c>
     </row>
     <row r="176">
@@ -3246,13 +3242,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-6.410269</v>
+        <v>-5.935461</v>
       </c>
       <c r="C176" t="n">
-        <v>-3.839638</v>
+        <v>-4.555785</v>
       </c>
       <c r="D176" t="n">
-        <v>0.972012</v>
+        <v>0.973203</v>
       </c>
     </row>
     <row r="177">
@@ -3262,13 +3258,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-5.42688</v>
+        <v>-4.806732</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.16457</v>
+        <v>-5.759309</v>
       </c>
       <c r="D177" t="n">
-        <v>0.972001</v>
+        <v>0.9731919999999999</v>
       </c>
     </row>
     <row r="178">
@@ -3278,13 +3274,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-4.177287</v>
+        <v>-3.442179</v>
       </c>
       <c r="C178" t="n">
-        <v>-6.242076</v>
+        <v>-6.686938</v>
       </c>
       <c r="D178" t="n">
-        <v>0.971991</v>
+        <v>0.973182</v>
       </c>
     </row>
     <row r="179">
@@ -3294,13 +3290,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-2.722559</v>
+        <v>-1.908173</v>
       </c>
       <c r="C179" t="n">
-        <v>-7.020708</v>
+        <v>-7.294659</v>
       </c>
       <c r="D179" t="n">
-        <v>0.971981</v>
+        <v>0.973172</v>
       </c>
     </row>
     <row r="180">
@@ -3310,13 +3306,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-1.133162</v>
+        <v>-0.278703</v>
       </c>
       <c r="C180" t="n">
-        <v>-7.463782</v>
+        <v>-7.554132</v>
       </c>
       <c r="D180" t="n">
-        <v>0.971971</v>
+        <v>0.973162</v>
       </c>
     </row>
     <row r="181">
@@ -3326,13 +3322,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.514534</v>
+        <v>1.368247</v>
       </c>
       <c r="C181" t="n">
-        <v>-7.550945</v>
+        <v>-7.453852</v>
       </c>
       <c r="D181" t="n">
-        <v>0.971961</v>
+        <v>0.973153</v>
       </c>
     </row>
     <row r="182">
@@ -3342,13 +3338,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2.14196</v>
+        <v>2.954451</v>
       </c>
       <c r="C182" t="n">
-        <v>-7.278939</v>
+        <v>-6.999475</v>
       </c>
       <c r="D182" t="n">
-        <v>0.971951</v>
+        <v>0.973143</v>
       </c>
     </row>
     <row r="183">
@@ -3358,13 +3354,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3.672095</v>
+        <v>4.405138</v>
       </c>
       <c r="C183" t="n">
-        <v>-6.661537</v>
+        <v>-6.213341</v>
       </c>
       <c r="D183" t="n">
-        <v>0.971942</v>
+        <v>0.973133</v>
       </c>
     </row>
     <row r="184">
@@ -3374,13 +3370,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5.033084</v>
+        <v>5.652466</v>
       </c>
       <c r="C184" t="n">
-        <v>-5.728686</v>
+        <v>-5.133215</v>
       </c>
       <c r="D184" t="n">
-        <v>0.971932</v>
+        <v>0.973124</v>
       </c>
     </row>
     <row r="185">
@@ -3390,13 +3386,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>6.161532</v>
+        <v>6.638605</v>
       </c>
       <c r="C185" t="n">
-        <v>-4.524899</v>
+        <v>-3.810328</v>
       </c>
       <c r="D185" t="n">
-        <v>0.971923</v>
+        <v>0.973114</v>
       </c>
     </row>
     <row r="186">
@@ -3406,13 +3402,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7.005367</v>
+        <v>7.318307</v>
       </c>
       <c r="C186" t="n">
-        <v>-3.106998</v>
+        <v>-2.30683</v>
       </c>
       <c r="D186" t="n">
-        <v>0.971913</v>
+        <v>0.973105</v>
       </c>
     </row>
     <row r="187">
@@ -3422,13 +3418,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7.526109</v>
+        <v>7.660845</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.541326</v>
+        <v>-0.692777</v>
       </c>
       <c r="D187" t="n">
-        <v>0.971904</v>
+        <v>0.973096</v>
       </c>
     </row>
     <row r="188">
@@ -3438,13 +3434,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>7.700488</v>
+        <v>7.651253</v>
       </c>
       <c r="C188" t="n">
-        <v>0.09943299999999999</v>
+        <v>0.957195</v>
       </c>
       <c r="D188" t="n">
-        <v>0.971895</v>
+        <v>0.973086</v>
       </c>
     </row>
     <row r="189">
@@ -3454,13 +3450,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7.521325</v>
+        <v>7.290818</v>
       </c>
       <c r="C189" t="n">
-        <v>1.739677</v>
+        <v>2.567346</v>
       </c>
       <c r="D189" t="n">
-        <v>0.971886</v>
+        <v>0.973077</v>
       </c>
     </row>
     <row r="190">
@@ -3470,13 +3466,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>6.997665</v>
+        <v>6.596828</v>
       </c>
       <c r="C190" t="n">
-        <v>3.304375</v>
+        <v>4.064302</v>
       </c>
       <c r="D190" t="n">
-        <v>0.971877</v>
+        <v>0.973068</v>
       </c>
     </row>
     <row r="191">
@@ -3486,13 +3482,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6.15417</v>
+        <v>5.601591</v>
       </c>
       <c r="C191" t="n">
-        <v>4.722478</v>
+        <v>5.380359</v>
       </c>
       <c r="D191" t="n">
-        <v>0.971868</v>
+        <v>0.97306</v>
       </c>
     </row>
     <row r="192">
@@ -3502,13 +3498,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>5.029814</v>
+        <v>4.350799</v>
       </c>
       <c r="C192" t="n">
-        <v>5.93009</v>
+        <v>6.456471</v>
       </c>
       <c r="D192" t="n">
-        <v>0.971859</v>
+        <v>0.973051</v>
       </c>
     </row>
     <row r="193">
@@ -3518,13 +3514,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3.675958</v>
+        <v>2.901309</v>
       </c>
       <c r="C193" t="n">
-        <v>6.873261</v>
+        <v>7.24481</v>
       </c>
       <c r="D193" t="n">
-        <v>0.97185</v>
+        <v>0.973042</v>
       </c>
     </row>
     <row r="194">
@@ -3534,13 +3530,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2.153891</v>
+        <v>1.318468</v>
       </c>
       <c r="C194" t="n">
-        <v>7.510295</v>
+        <v>7.710765</v>
       </c>
       <c r="D194" t="n">
-        <v>0.971842</v>
+        <v>0.973033</v>
       </c>
     </row>
     <row r="195">
@@ -3550,13 +3546,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.531981</v>
+        <v>-0.326899</v>
       </c>
       <c r="C195" t="n">
-        <v>7.81346</v>
+        <v>7.834333</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9718329999999999</v>
+        <v>0.973025</v>
       </c>
     </row>
     <row r="196">
@@ -3566,13 +3562,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1.117448</v>
+        <v>-1.961692</v>
       </c>
       <c r="C196" t="n">
-        <v>7.770062</v>
+        <v>7.610834</v>
       </c>
       <c r="D196" t="n">
-        <v>0.971824</v>
+        <v>0.973016</v>
       </c>
     </row>
     <row r="197">
@@ -3582,13 +3578,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-2.721364</v>
+        <v>-3.513791</v>
       </c>
       <c r="C197" t="n">
-        <v>7.382825</v>
+        <v>7.050934</v>
       </c>
       <c r="D197" t="n">
-        <v>0.971816</v>
+        <v>0.973008</v>
       </c>
     </row>
     <row r="198">
@@ -3598,13 +3594,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-4.20925</v>
+        <v>-4.915213</v>
       </c>
       <c r="C198" t="n">
-        <v>6.669597</v>
+        <v>6.180005</v>
       </c>
       <c r="D198" t="n">
-        <v>0.971808</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="199">
@@ -3614,13 +3610,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-5.516165</v>
+        <v>-6.105032</v>
       </c>
       <c r="C199" t="n">
-        <v>5.662386</v>
+        <v>5.036838</v>
       </c>
       <c r="D199" t="n">
-        <v>0.971799</v>
+        <v>0.9729910000000001</v>
       </c>
     </row>
     <row r="200">
@@ -3630,13 +3626,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-6.585511</v>
+        <v>-7.031954</v>
       </c>
       <c r="C200" t="n">
-        <v>4.405803</v>
+        <v>3.671805</v>
       </c>
       <c r="D200" t="n">
-        <v>0.971791</v>
+        <v>0.972983</v>
       </c>
     </row>
     <row r="201">
@@ -3646,13 +3642,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-7.371398</v>
+        <v>-7.656425</v>
       </c>
       <c r="C201" t="n">
-        <v>2.954982</v>
+        <v>2.144541</v>
       </c>
       <c r="D201" t="n">
-        <v>0.971783</v>
+        <v>0.972975</v>
       </c>
     </row>
     <row r="202">
@@ -3662,13 +3658,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-7.840502</v>
+        <v>-7.952204</v>
       </c>
       <c r="C202" t="n">
-        <v>1.373072</v>
+        <v>0.521268</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9717750000000001</v>
+        <v>0.972967</v>
       </c>
     </row>
     <row r="203">
@@ -3678,13 +3674,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-7.973357</v>
+        <v>-7.907337</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.271571</v>
+        <v>-1.128122</v>
       </c>
       <c r="D203" t="n">
-        <v>0.971767</v>
+        <v>0.972959</v>
       </c>
     </row>
     <row r="204">
@@ -3694,13 +3690,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-7.765029</v>
+        <v>-7.524506</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.908367</v>
+        <v>-2.733095</v>
       </c>
       <c r="D204" t="n">
-        <v>0.971759</v>
+        <v>0.972951</v>
       </c>
     </row>
     <row r="205">
@@ -3710,13 +3706,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-7.225165</v>
+        <v>-6.82075</v>
       </c>
       <c r="C205" t="n">
-        <v>-3.467548</v>
+        <v>-4.225485</v>
       </c>
       <c r="D205" t="n">
-        <v>0.971751</v>
+        <v>0.972943</v>
       </c>
     </row>
     <row r="206">
@@ -3726,13 +3722,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-6.377418</v>
+        <v>-5.826584</v>
       </c>
       <c r="C206" t="n">
-        <v>-4.883113</v>
+        <v>-5.54235</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9717440000000001</v>
+        <v>0.972936</v>
       </c>
     </row>
     <row r="207">
@@ -3742,13 +3738,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-5.258291</v>
+        <v>-4.584557</v>
       </c>
       <c r="C207" t="n">
-        <v>-6.095571</v>
+        <v>-6.628568</v>
       </c>
       <c r="D207" t="n">
-        <v>0.971736</v>
+        <v>0.972928</v>
       </c>
     </row>
     <row r="208">
@@ -3758,13 +3754,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-3.915458</v>
+        <v>-3.147339</v>
       </c>
       <c r="C208" t="n">
-        <v>-7.054372</v>
+        <v>-7.439065</v>
       </c>
       <c r="D208" t="n">
-        <v>0.971728</v>
+        <v>0.97292</v>
       </c>
     </row>
     <row r="209">
@@ -3774,13 +3770,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-2.405642</v>
+        <v>-1.575405</v>
       </c>
       <c r="C209" t="n">
-        <v>-7.719923</v>
+        <v>-7.940585</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9717209999999999</v>
+        <v>0.972913</v>
       </c>
     </row>
     <row r="210">
@@ -3790,13 +3786,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-0.792156</v>
+        <v>0.065569</v>
       </c>
       <c r="C210" t="n">
-        <v>-8.06512</v>
+        <v>-8.112942</v>
       </c>
       <c r="D210" t="n">
-        <v>0.971713</v>
+        <v>0.972905</v>
       </c>
     </row>
     <row r="211">
@@ -3806,13 +3802,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.857806</v>
+        <v>1.707475</v>
       </c>
       <c r="C211" t="n">
-        <v>-8.076336</v>
+        <v>-7.949718</v>
       </c>
       <c r="D211" t="n">
-        <v>0.971706</v>
+        <v>0.972898</v>
       </c>
     </row>
     <row r="212">
@@ -3822,13 +3818,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2.475981</v>
+        <v>3.282618</v>
       </c>
       <c r="C212" t="n">
-        <v>-7.753831</v>
+        <v>-7.458368</v>
       </c>
       <c r="D212" t="n">
-        <v>0.971698</v>
+        <v>0.972891</v>
       </c>
     </row>
     <row r="213">
@@ -3838,13 +3834,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3.995861</v>
+        <v>4.726482</v>
       </c>
       <c r="C213" t="n">
-        <v>-7.111597</v>
+        <v>-6.65977</v>
       </c>
       <c r="D213" t="n">
-        <v>0.971691</v>
+        <v>0.9728830000000001</v>
       </c>
     </row>
     <row r="214">
@@ -3854,13 +3850,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>5.355398</v>
+        <v>5.980336</v>
       </c>
       <c r="C214" t="n">
-        <v>-6.176632</v>
+        <v>-5.587227</v>
       </c>
       <c r="D214" t="n">
-        <v>0.971684</v>
+        <v>0.972876</v>
       </c>
     </row>
     <row r="215">
@@ -3870,13 +3866,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6.499484</v>
+        <v>6.993561</v>
       </c>
       <c r="C215" t="n">
-        <v>-4.987696</v>
+        <v>-4.284969</v>
       </c>
       <c r="D215" t="n">
-        <v>0.971677</v>
+        <v>0.972869</v>
       </c>
     </row>
     <row r="216">
@@ -3886,13 +3882,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>7.382118</v>
+        <v>7.725615</v>
       </c>
       <c r="C216" t="n">
-        <v>-3.593617</v>
+        <v>-2.806255</v>
       </c>
       <c r="D216" t="n">
-        <v>0.97167</v>
+        <v>0.972862</v>
       </c>
     </row>
     <row r="217">
@@ -3902,13 +3898,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7.968165</v>
+        <v>8.14756</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.051201</v>
+        <v>-1.211117</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9716630000000001</v>
+        <v>0.972855</v>
       </c>
     </row>
     <row r="218">
@@ -3918,13 +3914,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8.234659000000001</v>
+        <v>8.243098</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.422864</v>
+        <v>0.436114</v>
       </c>
       <c r="D218" t="n">
-        <v>0.971656</v>
+        <v>0.972848</v>
       </c>
     </row>
     <row r="219">
@@ -3934,13 +3930,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>8.171588</v>
+        <v>8.009096</v>
       </c>
       <c r="C219" t="n">
-        <v>1.225931</v>
+        <v>2.069437</v>
       </c>
       <c r="D219" t="n">
-        <v>0.971649</v>
+        <v>0.972841</v>
       </c>
     </row>
     <row r="220">
@@ -3950,13 +3946,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>7.782162</v>
+        <v>7.455566</v>
       </c>
       <c r="C220" t="n">
-        <v>2.829317</v>
+        <v>3.623819</v>
       </c>
       <c r="D220" t="n">
-        <v>0.971642</v>
+        <v>0.972834</v>
       </c>
     </row>
     <row r="221">
@@ -3966,13 +3962,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>7.082545</v>
+        <v>6.605129</v>
       </c>
       <c r="C221" t="n">
-        <v>4.323652</v>
+        <v>5.03777</v>
       </c>
       <c r="D221" t="n">
-        <v>0.971635</v>
+        <v>0.972828</v>
       </c>
     </row>
     <row r="222">
@@ -3982,13 +3978,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>6.101078</v>
+        <v>5.491994</v>
       </c>
       <c r="C222" t="n">
-        <v>5.650008</v>
+        <v>6.255732</v>
       </c>
       <c r="D222" t="n">
-        <v>0.971628</v>
+        <v>0.972821</v>
       </c>
     </row>
     <row r="223">
@@ -3998,13 +3994,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4.877033</v>
+        <v>4.160489</v>
       </c>
       <c r="C223" t="n">
-        <v>6.75645</v>
+        <v>7.230203</v>
       </c>
       <c r="D223" t="n">
-        <v>0.971622</v>
+        <v>0.972814</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4010,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3.458961</v>
+        <v>2.663219</v>
       </c>
       <c r="C224" t="n">
-        <v>7.599998</v>
+        <v>7.923515</v>
       </c>
       <c r="D224" t="n">
-        <v>0.971615</v>
+        <v>0.972808</v>
       </c>
     </row>
     <row r="225">
@@ -4030,13 +4026,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1.902698</v>
+        <v>1.058929</v>
       </c>
       <c r="C225" t="n">
-        <v>8.148217000000001</v>
+        <v>8.309201</v>
       </c>
       <c r="D225" t="n">
-        <v>0.971608</v>
+        <v>0.972801</v>
       </c>
     </row>
   </sheetData>
